--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_3_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_3_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1642626.659765547</v>
+        <v>-1644670.434506254</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29.97946139573809</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>250.3284900238521</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>123.968651398835</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>233.6227304372753</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.3870695882587</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>59.70004712226944</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>102.1737872065298</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>59.19832942146805</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>76.69297098191936</v>
+        <v>68.48091993583316</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,64 +1051,64 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>159.8350691069748</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>80.36913259236702</v>
+        <v>15.96893967428036</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>90.02575748609816</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>20.18367423906542</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>379.4648991351893</v>
+        <v>379.4648991351892</v>
       </c>
       <c r="C11" t="n">
-        <v>362.0039492427163</v>
+        <v>362.0039492427162</v>
       </c>
       <c r="D11" t="n">
-        <v>351.4140990923917</v>
+        <v>351.4140990923916</v>
       </c>
       <c r="E11" t="n">
-        <v>378.6614275439705</v>
+        <v>378.6614275439704</v>
       </c>
       <c r="F11" t="n">
         <v>403.6071032134201</v>
@@ -1385,10 +1385,10 @@
         <v>408.7344895296495</v>
       </c>
       <c r="H11" t="n">
-        <v>302.4168475739852</v>
+        <v>302.4168475739851</v>
       </c>
       <c r="I11" t="n">
-        <v>80.01047340363303</v>
+        <v>80.010473403633</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>366.4621581501777</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.9689961277623</v>
+        <v>382.9689961277622</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.5782331159958</v>
       </c>
       <c r="H12" t="n">
-        <v>95.18651672786901</v>
+        <v>95.18651672786899</v>
       </c>
       <c r="I12" t="n">
-        <v>28.61821280476405</v>
+        <v>28.61821280476404</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>176.563037653646</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>163.9778785703365</v>
       </c>
       <c r="D13" t="n">
         <v>145.346530489921</v>
@@ -1543,10 +1543,10 @@
         <v>163.242081984717</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.8000859895978</v>
       </c>
       <c r="I13" t="n">
-        <v>107.6752539557842</v>
+        <v>107.6752539557841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>107.4802973434422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.9560787929671</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>143.4663253962224</v>
+        <v>208.430400114589</v>
       </c>
       <c r="V13" t="n">
-        <v>248.8687007955367</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.4648991351893</v>
+        <v>379.4648991351892</v>
       </c>
       <c r="C14" t="n">
-        <v>362.0039492427163</v>
+        <v>362.0039492427162</v>
       </c>
       <c r="D14" t="n">
-        <v>351.4140990923917</v>
+        <v>351.4140990923916</v>
       </c>
       <c r="E14" t="n">
-        <v>378.6614275439705</v>
+        <v>378.6614275439704</v>
       </c>
       <c r="F14" t="n">
         <v>403.6071032134201</v>
@@ -1622,10 +1622,10 @@
         <v>408.7344895296495</v>
       </c>
       <c r="H14" t="n">
-        <v>302.4168475739852</v>
+        <v>302.4168475739851</v>
       </c>
       <c r="I14" t="n">
-        <v>80.01047340363303</v>
+        <v>80.01047340363304</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>366.4621581501777</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.9689961277623</v>
+        <v>382.9689961277622</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>95.18651672786901</v>
       </c>
       <c r="I15" t="n">
-        <v>28.61821280476405</v>
+        <v>28.61821280476406</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>176.563037653646</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>163.9778785703365</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>145.346530489921</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>143.1650201182779</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>142.1521054946399</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>107.6752539557841</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>194.9560787929671</v>
       </c>
       <c r="T16" t="n">
-        <v>163.8634840955114</v>
+        <v>218.3532034694291</v>
       </c>
       <c r="U16" t="n">
-        <v>282.9693620184477</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>248.8687007955367</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2540558082997</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>222.4407128607458</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>104.163285826507</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>379.4648991351893</v>
+        <v>379.4648991351892</v>
       </c>
       <c r="C17" t="n">
-        <v>362.0039492427163</v>
+        <v>362.0039492427162</v>
       </c>
       <c r="D17" t="n">
-        <v>351.4140990923917</v>
+        <v>351.4140990923916</v>
       </c>
       <c r="E17" t="n">
-        <v>378.6614275439705</v>
+        <v>378.6614275439704</v>
       </c>
       <c r="F17" t="n">
-        <v>403.6071032134202</v>
+        <v>403.6071032134201</v>
       </c>
       <c r="G17" t="n">
-        <v>408.7344895296496</v>
+        <v>408.7344895296495</v>
       </c>
       <c r="H17" t="n">
-        <v>302.4168475739853</v>
+        <v>302.4168475739851</v>
       </c>
       <c r="I17" t="n">
-        <v>80.01047340363311</v>
+        <v>80.01047340363304</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.56820395214</v>
+        <v>130.5682039521399</v>
       </c>
       <c r="T17" t="n">
         <v>205.3841973969722</v>
       </c>
       <c r="U17" t="n">
-        <v>247.8127659429697</v>
+        <v>247.8127659429696</v>
       </c>
       <c r="V17" t="n">
-        <v>324.4833159418437</v>
+        <v>324.4833159418436</v>
       </c>
       <c r="W17" t="n">
-        <v>345.9720261891218</v>
+        <v>345.9720261891217</v>
       </c>
       <c r="X17" t="n">
-        <v>366.4621581501778</v>
+        <v>366.4621581501777</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.9689961277624</v>
+        <v>382.9689961277618</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>176.563037653646</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>163.9778785703365</v>
       </c>
       <c r="D19" t="n">
-        <v>145.3465304899211</v>
+        <v>145.346530489921</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>143.1650201182779</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>142.1521054946399</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.242081984717</v>
       </c>
       <c r="H19" t="n">
-        <v>145.8000859895979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>218.3532034694292</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>132.2891049579774</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>248.8687007955367</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2540558082998</v>
+        <v>24.14931637542102</v>
       </c>
       <c r="X19" t="n">
-        <v>222.4407128607459</v>
+        <v>222.4407128607458</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>215.3157108238035</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2090,16 @@
         <v>378.6614275439705</v>
       </c>
       <c r="F20" t="n">
-        <v>403.6071032134202</v>
+        <v>403.6071032134201</v>
       </c>
       <c r="G20" t="n">
-        <v>408.7344895296496</v>
+        <v>408.7344895296495</v>
       </c>
       <c r="H20" t="n">
-        <v>302.4168475739853</v>
+        <v>302.4168475739852</v>
       </c>
       <c r="I20" t="n">
-        <v>80.01047340363313</v>
+        <v>80.01047340363304</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.56820395214</v>
+        <v>130.5682039521399</v>
       </c>
       <c r="T20" t="n">
-        <v>205.3841973969723</v>
+        <v>205.3841973969722</v>
       </c>
       <c r="U20" t="n">
-        <v>247.8127659429697</v>
+        <v>247.8127659429696</v>
       </c>
       <c r="V20" t="n">
-        <v>324.4833159418437</v>
+        <v>324.4833159418436</v>
       </c>
       <c r="W20" t="n">
-        <v>345.9720261891205</v>
+        <v>345.9720261891217</v>
       </c>
       <c r="X20" t="n">
-        <v>366.4621581501778</v>
+        <v>366.4621581501777</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.9689961277624</v>
+        <v>382.9689961277623</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.5630376536461</v>
+        <v>176.563037653646</v>
       </c>
       <c r="C22" t="n">
-        <v>163.9778785703366</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.576510352250864</v>
+        <v>31.55697296004767</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.2420819847171</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.8000859895979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.4802973434423</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.9560787929672</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.3532034694291</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>248.8687007955367</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2540558082997</v>
       </c>
       <c r="X22" t="n">
-        <v>222.4407128607459</v>
+        <v>222.4407128607458</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.3157108238036</v>
+        <v>215.3157108238035</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>352.3668344183184</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.0034320579408</v>
+        <v>393.9393917721007</v>
       </c>
       <c r="H23" t="n">
         <v>305.6857901022765</v>
       </c>
       <c r="I23" t="n">
-        <v>70.37335857923546</v>
+        <v>83.27941593192436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>115.7731061945911</v>
+        <v>133.8371464804312</v>
       </c>
       <c r="T23" t="n">
         <v>208.6531399252635</v>
@@ -2378,10 +2378,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>331.1769284315729</v>
       </c>
       <c r="X23" t="n">
-        <v>351.6670603926289</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.7679398960972</v>
       </c>
       <c r="C25" t="n">
         <v>149.1827808127877</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.369922360729</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.004988232049</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>92.88015619823535</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>92.68519958589343</v>
       </c>
       <c r="S25" t="n">
-        <v>180.1609810354182</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.5581057118803</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>268.1742642608988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.6564788277103</v>
+        <v>234.0736030379879</v>
       </c>
       <c r="W25" t="n">
-        <v>268.4589580507508</v>
+        <v>114.2269785756656</v>
       </c>
       <c r="X25" t="n">
         <v>207.645615103197</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.5206130662546</v>
+        <v>200.5206130662547</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>367.9387439059318</v>
       </c>
       <c r="C26" t="n">
-        <v>360.6240471192843</v>
+        <v>350.4777940134588</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>412.0034320579408</v>
       </c>
       <c r="H26" t="n">
-        <v>290.8906923447277</v>
+        <v>305.6857901022765</v>
       </c>
       <c r="I26" t="n">
         <v>83.27941593192436</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.8371464804312</v>
+        <v>129.1883018287075</v>
       </c>
       <c r="T26" t="n">
-        <v>193.8580421677146</v>
+        <v>208.6531399252635</v>
       </c>
       <c r="U26" t="n">
-        <v>251.081708471261</v>
+        <v>236.2866107137122</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>334.4458709598642</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.0368824243884</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>152.451723341079</v>
       </c>
       <c r="D28" t="n">
-        <v>133.8203752606635</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>131.6388648890203</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>130.6259502653824</v>
       </c>
       <c r="G28" t="n">
-        <v>151.7159267554594</v>
+        <v>151.7159267554595</v>
       </c>
       <c r="H28" t="n">
-        <v>134.2739307603403</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>95.95414211418475</v>
       </c>
       <c r="S28" t="n">
-        <v>183.4299235637096</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>92.81853740153977</v>
+        <v>32.48906423546111</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>271.4432067891902</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>237.3425455662792</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>210.9145576314883</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>203.789555594546</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>367.9387439059318</v>
       </c>
       <c r="C29" t="n">
-        <v>350.4777940134587</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>402.2272010899878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>412.0034320579408</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.8371464804312</v>
+        <v>129.1883018287066</v>
       </c>
       <c r="T29" t="n">
-        <v>208.6531399252635</v>
+        <v>193.8580421677147</v>
       </c>
       <c r="U29" t="n">
-        <v>251.081708471261</v>
+        <v>236.2866107137122</v>
       </c>
       <c r="V29" t="n">
-        <v>312.9571607125861</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>334.4458709598642</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>105.0414899231899</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>151.7159267554595</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.14909872652667</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>95.95414211418475</v>
       </c>
       <c r="S31" t="n">
         <v>183.4299235637096</v>
@@ -3004,10 +3004,10 @@
         <v>206.8270482401716</v>
       </c>
       <c r="U31" t="n">
-        <v>271.4432067891902</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>237.3425455662791</v>
+        <v>66.21851908794173</v>
       </c>
       <c r="W31" t="n">
         <v>271.7279005790422</v>
@@ -3016,7 +3016,7 @@
         <v>210.9145576314883</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>203.789555594546</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>357.8419078173422</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>412.0034320579408</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.8371464804312</v>
+        <v>84.80300855606232</v>
       </c>
       <c r="T32" t="n">
         <v>208.6531399252635</v>
@@ -3187,25 +3187,25 @@
         <v>110.9105544400758</v>
       </c>
       <c r="C34" t="n">
-        <v>98.32539535676638</v>
+        <v>98.32539535676634</v>
       </c>
       <c r="D34" t="n">
-        <v>79.6940472763509</v>
+        <v>79.69404727635086</v>
       </c>
       <c r="E34" t="n">
-        <v>77.51253690470772</v>
+        <v>77.51253690470767</v>
       </c>
       <c r="F34" t="n">
-        <v>76.49962228106979</v>
+        <v>76.49962228106975</v>
       </c>
       <c r="G34" t="n">
-        <v>97.58959877114685</v>
+        <v>97.5895987711468</v>
       </c>
       <c r="H34" t="n">
-        <v>80.1476027760277</v>
+        <v>80.14760277602764</v>
       </c>
       <c r="I34" t="n">
-        <v>42.02277074221402</v>
+        <v>42.02277074221398</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.8278141298721</v>
+        <v>41.82781412987205</v>
       </c>
       <c r="S34" t="n">
-        <v>129.303595579397</v>
+        <v>129.3035955793969</v>
       </c>
       <c r="T34" t="n">
         <v>152.700720255859</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.6997037391115</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.8371464804312</v>
+        <v>84.80300855606232</v>
       </c>
       <c r="T35" t="n">
         <v>208.6531399252635</v>
@@ -3424,25 +3424,25 @@
         <v>110.9105544400758</v>
       </c>
       <c r="C37" t="n">
-        <v>98.32539535676632</v>
+        <v>98.32539535676631</v>
       </c>
       <c r="D37" t="n">
-        <v>79.69404727635084</v>
+        <v>79.69404727635083</v>
       </c>
       <c r="E37" t="n">
-        <v>77.51253690470766</v>
+        <v>77.51253690470764</v>
       </c>
       <c r="F37" t="n">
-        <v>76.49962228106973</v>
+        <v>76.49962228106972</v>
       </c>
       <c r="G37" t="n">
-        <v>97.5895987711468</v>
+        <v>97.58959877114677</v>
       </c>
       <c r="H37" t="n">
-        <v>80.14760277602764</v>
+        <v>80.14760277602761</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02277074221396</v>
+        <v>42.02277074221395</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.82781412987204</v>
+        <v>41.82781412987202</v>
       </c>
       <c r="S37" t="n">
         <v>129.3035955793969</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>333.6997037391106</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>208.6531399252635</v>
       </c>
       <c r="U38" t="n">
-        <v>251.081708471261</v>
+        <v>202.0475705468912</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>110.9105544400758</v>
       </c>
       <c r="C40" t="n">
-        <v>98.32539535676634</v>
+        <v>98.32539535676636</v>
       </c>
       <c r="D40" t="n">
-        <v>79.69404727635086</v>
+        <v>79.69404727635089</v>
       </c>
       <c r="E40" t="n">
-        <v>77.51253690470767</v>
+        <v>77.5125369047077</v>
       </c>
       <c r="F40" t="n">
-        <v>76.49962228106975</v>
+        <v>76.49962228106978</v>
       </c>
       <c r="G40" t="n">
-        <v>97.5895987711468</v>
+        <v>97.58959877114683</v>
       </c>
       <c r="H40" t="n">
-        <v>80.14760277602764</v>
+        <v>80.14760277602767</v>
       </c>
       <c r="I40" t="n">
-        <v>42.02277074221398</v>
+        <v>42.02277074221401</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.82781412987205</v>
+        <v>41.82781412987208</v>
       </c>
       <c r="S40" t="n">
-        <v>129.3035955793969</v>
+        <v>129.303595579397</v>
       </c>
       <c r="T40" t="n">
         <v>152.700720255859</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.80300855606143</v>
+        <v>133.8371464804312</v>
       </c>
       <c r="T41" t="n">
         <v>208.6531399252635</v>
       </c>
       <c r="U41" t="n">
-        <v>251.081708471261</v>
+        <v>202.0475705468912</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>110.9105544400758</v>
       </c>
       <c r="C43" t="n">
-        <v>98.32539535676636</v>
+        <v>98.32539535676634</v>
       </c>
       <c r="D43" t="n">
-        <v>79.69404727635089</v>
+        <v>79.69404727635086</v>
       </c>
       <c r="E43" t="n">
-        <v>77.5125369047077</v>
+        <v>77.51253690470767</v>
       </c>
       <c r="F43" t="n">
-        <v>76.49962228106978</v>
+        <v>76.49962228106975</v>
       </c>
       <c r="G43" t="n">
-        <v>97.58959877114683</v>
+        <v>97.5895987711468</v>
       </c>
       <c r="H43" t="n">
-        <v>80.14760277602767</v>
+        <v>80.14760277602764</v>
       </c>
       <c r="I43" t="n">
-        <v>42.02277074221401</v>
+        <v>42.02277074221398</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.82781412987208</v>
+        <v>41.82781412987205</v>
       </c>
       <c r="S43" t="n">
-        <v>129.303595579397</v>
+        <v>129.3035955793969</v>
       </c>
       <c r="T43" t="n">
         <v>152.700720255859</v>
@@ -3995,7 +3995,7 @@
         <v>305.6857901022765</v>
       </c>
       <c r="I44" t="n">
-        <v>83.27941593192435</v>
+        <v>83.27941593192436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.8371464804312</v>
+        <v>84.80300855606143</v>
       </c>
       <c r="T44" t="n">
         <v>208.6531399252635</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>337.2038007316835</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>95.18651672786901</v>
       </c>
       <c r="I45" t="n">
-        <v>28.61821280476405</v>
+        <v>28.61821280476406</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.14760277602768</v>
       </c>
       <c r="I46" t="n">
-        <v>42.022770742214</v>
+        <v>42.02277074221401</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>41.82781412987208</v>
       </c>
       <c r="S46" t="n">
-        <v>129.3035955793969</v>
+        <v>129.303595579397</v>
       </c>
       <c r="T46" t="n">
         <v>152.700720255859</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>309.2697678648297</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="C2" t="n">
-        <v>309.2697678648297</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="D2" t="n">
-        <v>309.2697678648297</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="E2" t="n">
-        <v>43.36872346920688</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="F2" t="n">
-        <v>36.42322272000341</v>
+        <v>317.2426913498754</v>
       </c>
       <c r="G2" t="n">
-        <v>21.05936271613333</v>
+        <v>51.34164695425261</v>
       </c>
       <c r="H2" t="n">
         <v>21.05936271613333</v>
@@ -4337,7 +4337,7 @@
         <v>330.254671414236</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
         <v>785.5101925369327</v>
@@ -4355,25 +4355,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T2" t="n">
-        <v>828.0278728906062</v>
+        <v>843.966258332007</v>
       </c>
       <c r="U2" t="n">
-        <v>828.0278728906062</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="V2" t="n">
-        <v>828.0278728906062</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="W2" t="n">
-        <v>575.1708122604525</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="X2" t="n">
-        <v>575.1708122604525</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="Y2" t="n">
-        <v>575.1708122604525</v>
+        <v>590.0892364947017</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5283303504996</v>
+        <v>344.4468016585116</v>
       </c>
       <c r="C3" t="n">
-        <v>316.5283303504996</v>
+        <v>169.9937723773846</v>
       </c>
       <c r="D3" t="n">
-        <v>167.5939206892484</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F3" t="n">
         <v>21.05936271613333</v>
@@ -4407,13 +4407,13 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K3" t="n">
-        <v>21.05936271613333</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L3" t="n">
-        <v>79.33446981177599</v>
+        <v>339.9440834239259</v>
       </c>
       <c r="M3" t="n">
         <v>339.9440834239259</v>
@@ -4431,28 +4431,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="U3" t="n">
-        <v>927.7472758078432</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="V3" t="n">
-        <v>692.5951675761005</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="W3" t="n">
-        <v>692.5951675761005</v>
+        <v>344.4468016585116</v>
       </c>
       <c r="X3" t="n">
-        <v>484.7436673705677</v>
+        <v>344.4468016585116</v>
       </c>
       <c r="Y3" t="n">
-        <v>484.7436673705677</v>
+        <v>344.4468016585116</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="E4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="F4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="G4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="H4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="I4" t="n">
         <v>38.68360465423048</v>
@@ -4507,31 +4507,31 @@
         <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>313.4082527667006</v>
+        <v>518.268921591467</v>
       </c>
       <c r="C5" t="n">
-        <v>313.4082527667006</v>
+        <v>252.3678771958442</v>
       </c>
       <c r="D5" t="n">
-        <v>47.50720837107777</v>
+        <v>252.3678771958442</v>
       </c>
       <c r="E5" t="n">
-        <v>47.50720837107777</v>
+        <v>252.3678771958442</v>
       </c>
       <c r="F5" t="n">
-        <v>40.56170762187429</v>
+        <v>245.4223764466408</v>
       </c>
       <c r="G5" t="n">
-        <v>25.19784761800421</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800421</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
@@ -4577,7 +4577,7 @@
         <v>563.3128681098021</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O5" t="n">
         <v>950.1371873885138</v>
@@ -4589,28 +4589,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>804.2495600783836</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T5" t="n">
-        <v>579.3092971623234</v>
+        <v>843.966258332007</v>
       </c>
       <c r="U5" t="n">
-        <v>579.3092971623234</v>
+        <v>843.966258332007</v>
       </c>
       <c r="V5" t="n">
-        <v>313.4082527667006</v>
+        <v>578.0652139363842</v>
       </c>
       <c r="W5" t="n">
-        <v>313.4082527667006</v>
+        <v>518.268921591467</v>
       </c>
       <c r="X5" t="n">
-        <v>313.4082527667006</v>
+        <v>518.268921591467</v>
       </c>
       <c r="Y5" t="n">
-        <v>313.4082527667006</v>
+        <v>518.268921591467</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268.8749388208713</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C6" t="n">
-        <v>268.8749388208713</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D6" t="n">
-        <v>268.8749388208713</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E6" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F6" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G6" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K6" t="n">
-        <v>154.3302328992135</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="L6" t="n">
-        <v>339.747533904268</v>
+        <v>79.33446981177599</v>
       </c>
       <c r="M6" t="n">
-        <v>600.357147516418</v>
+        <v>339.9440834239259</v>
       </c>
       <c r="N6" t="n">
-        <v>860.9667611285679</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O6" t="n">
         <v>860.9667611285679</v>
@@ -4671,25 +4671,25 @@
         <v>954.9030226480426</v>
       </c>
       <c r="S6" t="n">
-        <v>782.4144152406835</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T6" t="n">
-        <v>782.4144152406835</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U6" t="n">
-        <v>554.1940864828883</v>
+        <v>726.6826938902474</v>
       </c>
       <c r="V6" t="n">
-        <v>476.7264390264041</v>
+        <v>657.5100474904159</v>
       </c>
       <c r="W6" t="n">
-        <v>476.7264390264041</v>
+        <v>403.2726907622143</v>
       </c>
       <c r="X6" t="n">
-        <v>268.8749388208713</v>
+        <v>403.2726907622143</v>
       </c>
       <c r="Y6" t="n">
-        <v>268.8749388208713</v>
+        <v>195.5123919972604</v>
       </c>
     </row>
     <row r="7">
@@ -4756,19 +4756,19 @@
         <v>182.5089274706534</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.109828622464</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="C8" t="n">
-        <v>546.109828622464</v>
+        <v>1301.733371838703</v>
       </c>
       <c r="D8" t="n">
-        <v>546.109828622464</v>
+        <v>943.4676732319524</v>
       </c>
       <c r="E8" t="n">
-        <v>546.109828622464</v>
+        <v>557.6794206337081</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1239238328564</v>
+        <v>550.7339198845046</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,31 +4881,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.3245153236264</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C10" t="n">
-        <v>509.3883323957195</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>678.3245153236264</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>678.3245153236264</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>678.3245153236264</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y10" t="n">
-        <v>678.3245153236264</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2406.215956355896</v>
       </c>
       <c r="C11" t="n">
-        <v>2040.555401565274</v>
+        <v>2040.555401565273</v>
       </c>
       <c r="D11" t="n">
         <v>1685.591665108312</v>
@@ -5030,40 +5030,40 @@
         <v>895.4214320200388</v>
       </c>
       <c r="G11" t="n">
-        <v>482.5583112830191</v>
+        <v>482.5583112830186</v>
       </c>
       <c r="H11" t="n">
-        <v>177.0867480769734</v>
+        <v>177.086748076973</v>
       </c>
       <c r="I11" t="n">
-        <v>96.26808807330332</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J11" t="n">
-        <v>361.6624738943028</v>
+        <v>361.6624738943025</v>
       </c>
       <c r="K11" t="n">
-        <v>880.1646660902934</v>
+        <v>880.1646660902931</v>
       </c>
       <c r="L11" t="n">
-        <v>1575.689112151773</v>
+        <v>1575.689112151772</v>
       </c>
       <c r="M11" t="n">
-        <v>2366.200617081632</v>
+        <v>2366.200617081631</v>
       </c>
       <c r="N11" t="n">
-        <v>3154.871427069777</v>
+        <v>3154.871427069776</v>
       </c>
       <c r="O11" t="n">
-        <v>3854.403271039756</v>
+        <v>3854.403271039755</v>
       </c>
       <c r="P11" t="n">
-        <v>4413.763132719399</v>
+        <v>4413.763132719398</v>
       </c>
       <c r="Q11" t="n">
         <v>4756.597333965679</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.404403665166</v>
+        <v>4813.404403665165</v>
       </c>
       <c r="S11" t="n">
         <v>4681.517328966034</v>
@@ -5084,7 +5084,7 @@
         <v>3176.351204096251</v>
       </c>
       <c r="Y11" t="n">
-        <v>2789.513834270229</v>
+        <v>2789.513834270228</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>125.1753737346811</v>
       </c>
       <c r="I12" t="n">
-        <v>96.26808807330332</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J12" t="n">
-        <v>135.811661464725</v>
+        <v>260.6417864517298</v>
       </c>
       <c r="K12" t="n">
-        <v>281.5527515232912</v>
+        <v>668.2034611527488</v>
       </c>
       <c r="L12" t="n">
-        <v>523.8421738297973</v>
+        <v>910.4928834592549</v>
       </c>
       <c r="M12" t="n">
-        <v>1264.775666908279</v>
+        <v>1349.400921424434</v>
       </c>
       <c r="N12" t="n">
-        <v>2063.82607223289</v>
+        <v>1673.902376148927</v>
       </c>
       <c r="O12" t="n">
         <v>2338.461711602058</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804.9357568039499</v>
+        <v>1117.842791712974</v>
       </c>
       <c r="C13" t="n">
-        <v>804.9357568039499</v>
+        <v>952.2085709348565</v>
       </c>
       <c r="D13" t="n">
-        <v>658.1210795414033</v>
+        <v>805.39389367231</v>
       </c>
       <c r="E13" t="n">
-        <v>513.5099481087993</v>
+        <v>660.7827622397061</v>
       </c>
       <c r="F13" t="n">
-        <v>369.9219627606782</v>
+        <v>517.194776891585</v>
       </c>
       <c r="G13" t="n">
-        <v>205.0309708569237</v>
+        <v>352.3037849878305</v>
       </c>
       <c r="H13" t="n">
-        <v>205.0309708569237</v>
+        <v>205.0309708569236</v>
       </c>
       <c r="I13" t="n">
-        <v>96.26808807330332</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J13" t="n">
         <v>110.6652323584194</v>
       </c>
       <c r="K13" t="n">
-        <v>262.0790948775151</v>
+        <v>262.0790948775152</v>
       </c>
       <c r="L13" t="n">
-        <v>510.4581068707074</v>
+        <v>510.4581068707075</v>
       </c>
       <c r="M13" t="n">
-        <v>782.5521507668577</v>
+        <v>782.5521507668581</v>
       </c>
       <c r="N13" t="n">
-        <v>1053.68797374651</v>
+        <v>1053.687973746511</v>
       </c>
       <c r="O13" t="n">
-        <v>1288.356544917991</v>
+        <v>1288.356544917992</v>
       </c>
       <c r="P13" t="n">
         <v>1466.1024450681</v>
       </c>
       <c r="Q13" t="n">
-        <v>1506.725052084928</v>
+        <v>1506.725052084929</v>
       </c>
       <c r="R13" t="n">
-        <v>1398.159095172361</v>
+        <v>1506.725052084929</v>
       </c>
       <c r="S13" t="n">
-        <v>1201.233763058252</v>
+        <v>1506.725052084929</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.233763058252</v>
+        <v>1506.725052084929</v>
       </c>
       <c r="U13" t="n">
-        <v>1056.318282860047</v>
+        <v>1296.189294393425</v>
       </c>
       <c r="V13" t="n">
-        <v>804.9357568039499</v>
+        <v>1296.189294393425</v>
       </c>
       <c r="W13" t="n">
-        <v>804.9357568039499</v>
+        <v>1296.189294393425</v>
       </c>
       <c r="X13" t="n">
-        <v>804.9357568039499</v>
+        <v>1296.189294393425</v>
       </c>
       <c r="Y13" t="n">
-        <v>804.9357568039499</v>
+        <v>1296.189294393425</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2406.215956355896</v>
+        <v>2406.215956355895</v>
       </c>
       <c r="C14" t="n">
         <v>2040.555401565273</v>
@@ -5273,10 +5273,10 @@
         <v>177.086748076973</v>
       </c>
       <c r="I14" t="n">
-        <v>96.26808807330332</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J14" t="n">
-        <v>361.6624738943024</v>
+        <v>361.6624738943028</v>
       </c>
       <c r="K14" t="n">
         <v>880.1646660902929</v>
@@ -5294,19 +5294,19 @@
         <v>3854.403271039755</v>
       </c>
       <c r="P14" t="n">
-        <v>4413.763132719399</v>
+        <v>4413.763132719398</v>
       </c>
       <c r="Q14" t="n">
-        <v>4756.59733396568</v>
+        <v>4756.597333965679</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.404403665166</v>
+        <v>4813.404403665165</v>
       </c>
       <c r="S14" t="n">
-        <v>4681.517328966034</v>
+        <v>4681.517328966032</v>
       </c>
       <c r="T14" t="n">
-        <v>4474.058543716567</v>
+        <v>4474.058543716566</v>
       </c>
       <c r="U14" t="n">
         <v>4223.742618521647</v>
@@ -5352,31 +5352,31 @@
         <v>125.1753737346811</v>
       </c>
       <c r="I15" t="n">
-        <v>96.26808807330332</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J15" t="n">
-        <v>260.6417864517298</v>
+        <v>260.6417864517297</v>
       </c>
       <c r="K15" t="n">
-        <v>668.2034611527488</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L15" t="n">
-        <v>910.4928834592548</v>
+        <v>910.4928834592546</v>
       </c>
       <c r="M15" t="n">
         <v>1212.59007940946</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.571416420861</v>
+        <v>1537.091534133953</v>
       </c>
       <c r="O15" t="n">
-        <v>1815.207055790029</v>
+        <v>1811.727173503121</v>
       </c>
       <c r="P15" t="n">
-        <v>2331.571443399709</v>
+        <v>2328.091561112801</v>
       </c>
       <c r="Q15" t="n">
-        <v>2624.049592443911</v>
+        <v>2614.699412453934</v>
       </c>
       <c r="R15" t="n">
         <v>2624.049592443911</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.26808807330332</v>
+        <v>805.6789856783129</v>
       </c>
       <c r="C16" t="n">
-        <v>96.26808807330332</v>
+        <v>640.0447649001952</v>
       </c>
       <c r="D16" t="n">
-        <v>96.26808807330332</v>
+        <v>493.2300876376487</v>
       </c>
       <c r="E16" t="n">
-        <v>96.26808807330332</v>
+        <v>348.6189562050448</v>
       </c>
       <c r="F16" t="n">
-        <v>96.26808807330332</v>
+        <v>205.0309708569237</v>
       </c>
       <c r="G16" t="n">
-        <v>96.26808807330332</v>
+        <v>205.0309708569237</v>
       </c>
       <c r="H16" t="n">
-        <v>96.26808807330332</v>
+        <v>205.0309708569237</v>
       </c>
       <c r="I16" t="n">
-        <v>96.26808807330332</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J16" t="n">
         <v>110.6652323584194</v>
@@ -5464,22 +5464,22 @@
         <v>1309.79971997082</v>
       </c>
       <c r="T16" t="n">
-        <v>1144.281049167273</v>
+        <v>1089.240928587558</v>
       </c>
       <c r="U16" t="n">
-        <v>858.4534107648005</v>
+        <v>1089.240928587558</v>
       </c>
       <c r="V16" t="n">
-        <v>607.0708847087029</v>
+        <v>1089.240928587558</v>
       </c>
       <c r="W16" t="n">
-        <v>320.9556768215315</v>
+        <v>1089.240928587558</v>
       </c>
       <c r="X16" t="n">
-        <v>96.26808807330332</v>
+        <v>1089.240928587558</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.26808807330332</v>
+        <v>984.0254883587634</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2406.215956355894</v>
+        <v>2406.215956355895</v>
       </c>
       <c r="C17" t="n">
-        <v>2040.555401565272</v>
+        <v>2040.555401565273</v>
       </c>
       <c r="D17" t="n">
-        <v>1685.59166510831</v>
+        <v>1685.591665108312</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.105374659855</v>
+        <v>1303.105374659857</v>
       </c>
       <c r="F17" t="n">
-        <v>895.4214320200367</v>
+        <v>895.4214320200383</v>
       </c>
       <c r="G17" t="n">
-        <v>482.5583112830169</v>
+        <v>482.5583112830187</v>
       </c>
       <c r="H17" t="n">
-        <v>177.0867480769731</v>
+        <v>177.086748076973</v>
       </c>
       <c r="I17" t="n">
         <v>96.2680880733033</v>
       </c>
       <c r="J17" t="n">
-        <v>361.6624738943025</v>
+        <v>361.6624738943024</v>
       </c>
       <c r="K17" t="n">
-        <v>880.1646660902928</v>
+        <v>880.1646660902927</v>
       </c>
       <c r="L17" t="n">
         <v>1575.689112151772</v>
       </c>
       <c r="M17" t="n">
-        <v>2366.200617081631</v>
+        <v>2366.200617081632</v>
       </c>
       <c r="N17" t="n">
-        <v>3154.871427069776</v>
+        <v>3154.871427069777</v>
       </c>
       <c r="O17" t="n">
         <v>3854.403271039756</v>
@@ -5540,25 +5540,25 @@
         <v>4813.404403665165</v>
       </c>
       <c r="S17" t="n">
-        <v>4681.517328966032</v>
+        <v>4681.517328966033</v>
       </c>
       <c r="T17" t="n">
         <v>4474.058543716566</v>
       </c>
       <c r="U17" t="n">
-        <v>4223.742618521646</v>
+        <v>4223.742618521647</v>
       </c>
       <c r="V17" t="n">
-        <v>3895.981693327865</v>
+        <v>3895.981693327866</v>
       </c>
       <c r="W17" t="n">
-        <v>3546.51500020754</v>
+        <v>3546.515000207541</v>
       </c>
       <c r="X17" t="n">
         <v>3176.35120409625</v>
       </c>
       <c r="Y17" t="n">
-        <v>2789.513834270227</v>
+        <v>2789.513834270228</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5595,16 @@
         <v>135.811661464725</v>
       </c>
       <c r="K18" t="n">
-        <v>281.5527515232911</v>
+        <v>543.3733361657439</v>
       </c>
       <c r="L18" t="n">
-        <v>890.9741156802218</v>
+        <v>1152.794700322675</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.119324742927</v>
+        <v>1739.324617508397</v>
       </c>
       <c r="N18" t="n">
-        <v>1978.62077946742</v>
+        <v>2063.82607223289</v>
       </c>
       <c r="O18" t="n">
         <v>2338.461711602058</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.3555794667567</v>
+        <v>861.8070947984475</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3555794667567</v>
+        <v>696.1728740203298</v>
       </c>
       <c r="D19" t="n">
-        <v>243.5409022042103</v>
+        <v>549.3581967577833</v>
       </c>
       <c r="E19" t="n">
-        <v>243.5409022042103</v>
+        <v>404.7470653251793</v>
       </c>
       <c r="F19" t="n">
-        <v>243.5409022042103</v>
+        <v>261.1590799770578</v>
       </c>
       <c r="G19" t="n">
-        <v>243.5409022042103</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="H19" t="n">
         <v>96.2680880733033</v>
@@ -5671,16 +5671,16 @@
         <v>96.2680880733033</v>
       </c>
       <c r="J19" t="n">
-        <v>110.6652323584193</v>
+        <v>110.6652323584195</v>
       </c>
       <c r="K19" t="n">
-        <v>262.0790948775148</v>
+        <v>262.0790948775152</v>
       </c>
       <c r="L19" t="n">
-        <v>510.458106870707</v>
+        <v>510.4581068707074</v>
       </c>
       <c r="M19" t="n">
-        <v>782.5521507668574</v>
+        <v>782.5521507668577</v>
       </c>
       <c r="N19" t="n">
         <v>1053.68797374651</v>
@@ -5689,34 +5689,34 @@
         <v>1288.356544917991</v>
       </c>
       <c r="P19" t="n">
-        <v>1466.102445068099</v>
+        <v>1466.1024450681</v>
       </c>
       <c r="Q19" t="n">
-        <v>1506.725052084927</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="R19" t="n">
-        <v>1506.725052084927</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="S19" t="n">
-        <v>1506.725052084927</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="T19" t="n">
-        <v>1286.166260701666</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="U19" t="n">
-        <v>1152.540902158254</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="V19" t="n">
-        <v>901.1583761021564</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="W19" t="n">
-        <v>615.0431682149849</v>
+        <v>1482.331803220867</v>
       </c>
       <c r="X19" t="n">
-        <v>390.3555794667567</v>
+        <v>1257.644214472639</v>
       </c>
       <c r="Y19" t="n">
-        <v>390.3555794667567</v>
+        <v>1040.153597478898</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2406.215956355896</v>
+        <v>2406.215956355895</v>
       </c>
       <c r="C20" t="n">
-        <v>2040.555401565274</v>
+        <v>2040.555401565272</v>
       </c>
       <c r="D20" t="n">
-        <v>1685.591665108312</v>
+        <v>1685.591665108311</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.105374659857</v>
+        <v>1303.105374659856</v>
       </c>
       <c r="F20" t="n">
-        <v>895.4214320200388</v>
+        <v>895.4214320200374</v>
       </c>
       <c r="G20" t="n">
-        <v>482.5583112830189</v>
+        <v>482.5583112830177</v>
       </c>
       <c r="H20" t="n">
-        <v>177.0867480769732</v>
+        <v>177.086748076973</v>
       </c>
       <c r="I20" t="n">
         <v>96.2680880733033</v>
       </c>
       <c r="J20" t="n">
-        <v>361.6624738943028</v>
+        <v>361.6624738943019</v>
       </c>
       <c r="K20" t="n">
-        <v>880.1646660902929</v>
+        <v>880.1646660902916</v>
       </c>
       <c r="L20" t="n">
-        <v>1575.689112151772</v>
+        <v>1575.689112151771</v>
       </c>
       <c r="M20" t="n">
-        <v>2366.200617081632</v>
+        <v>2366.20061708163</v>
       </c>
       <c r="N20" t="n">
-        <v>3154.871427069777</v>
+        <v>3154.871427069776</v>
       </c>
       <c r="O20" t="n">
         <v>3854.403271039755</v>
       </c>
       <c r="P20" t="n">
-        <v>4413.763132719398</v>
+        <v>4413.763132719399</v>
       </c>
       <c r="Q20" t="n">
         <v>4756.597333965679</v>
@@ -5789,13 +5789,13 @@
         <v>3895.981693327866</v>
       </c>
       <c r="W20" t="n">
-        <v>3546.515000207542</v>
+        <v>3546.515000207541</v>
       </c>
       <c r="X20" t="n">
-        <v>3176.351204096251</v>
+        <v>3176.35120409625</v>
       </c>
       <c r="Y20" t="n">
-        <v>2789.513834270229</v>
+        <v>2789.513834270228</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.709054635831</v>
+        <v>128.1438183359777</v>
       </c>
       <c r="C22" t="n">
-        <v>415.0748338577132</v>
+        <v>128.1438183359777</v>
       </c>
       <c r="D22" t="n">
-        <v>408.4318941079649</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="E22" t="n">
-        <v>408.4318941079649</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="F22" t="n">
-        <v>408.4318941079649</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="G22" t="n">
-        <v>243.5409022042103</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="H22" t="n">
         <v>96.2680880733033</v>
@@ -5908,16 +5908,16 @@
         <v>96.2680880733033</v>
       </c>
       <c r="J22" t="n">
-        <v>110.6652323584192</v>
+        <v>110.6652323584195</v>
       </c>
       <c r="K22" t="n">
-        <v>262.0790948775149</v>
+        <v>262.0790948775152</v>
       </c>
       <c r="L22" t="n">
-        <v>510.458106870707</v>
+        <v>510.4581068707074</v>
       </c>
       <c r="M22" t="n">
-        <v>782.5521507668573</v>
+        <v>782.5521507668578</v>
       </c>
       <c r="N22" t="n">
         <v>1053.68797374651</v>
@@ -5926,34 +5926,34 @@
         <v>1288.356544917991</v>
       </c>
       <c r="P22" t="n">
-        <v>1466.102445068099</v>
+        <v>1466.1024450681</v>
       </c>
       <c r="Q22" t="n">
-        <v>1506.725052084927</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="R22" t="n">
-        <v>1398.159095172359</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="S22" t="n">
-        <v>1201.233763058251</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="T22" t="n">
-        <v>1201.233763058251</v>
+        <v>1286.166260701666</v>
       </c>
       <c r="U22" t="n">
-        <v>1201.233763058251</v>
+        <v>1286.166260701666</v>
       </c>
       <c r="V22" t="n">
-        <v>1201.233763058251</v>
+        <v>1034.783734645569</v>
       </c>
       <c r="W22" t="n">
-        <v>1201.233763058251</v>
+        <v>748.6685267583972</v>
       </c>
       <c r="X22" t="n">
-        <v>976.5461743100226</v>
+        <v>523.9809380101691</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.0555573162816</v>
+        <v>306.4903210164282</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2416.293269836047</v>
+        <v>2398.046764496815</v>
       </c>
       <c r="C23" t="n">
-        <v>2047.330752895636</v>
+        <v>2042.120669124776</v>
       </c>
       <c r="D23" t="n">
-        <v>1689.065054288885</v>
+        <v>1683.854970518026</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.276801690641</v>
+        <v>1298.066717919781</v>
       </c>
       <c r="F23" t="n">
-        <v>892.2908969010334</v>
+        <v>887.0808131301736</v>
       </c>
       <c r="G23" t="n">
-        <v>476.1258140142245</v>
+        <v>489.1622355825971</v>
       </c>
       <c r="H23" t="n">
-        <v>167.3522886583896</v>
+        <v>180.3887102267623</v>
       </c>
       <c r="I23" t="n">
         <v>96.2680880733033</v>
@@ -5990,7 +5990,7 @@
         <v>361.6624738943028</v>
       </c>
       <c r="K23" t="n">
-        <v>880.1646660902929</v>
+        <v>880.1646660902932</v>
       </c>
       <c r="L23" t="n">
         <v>1575.689112151772</v>
@@ -6002,10 +6002,10 @@
         <v>3154.871427069777</v>
       </c>
       <c r="O23" t="n">
-        <v>3854.403271039755</v>
+        <v>3854.403271039756</v>
       </c>
       <c r="P23" t="n">
-        <v>4413.763132719398</v>
+        <v>4413.763132719399</v>
       </c>
       <c r="Q23" t="n">
         <v>4756.597333965679</v>
@@ -6014,25 +6014,25 @@
         <v>4813.404403665165</v>
       </c>
       <c r="S23" t="n">
-        <v>4696.461872155477</v>
+        <v>4678.215366816245</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.701124756221</v>
+        <v>4467.454619416989</v>
       </c>
       <c r="U23" t="n">
-        <v>4232.083237411513</v>
+        <v>4213.836732072281</v>
       </c>
       <c r="V23" t="n">
-        <v>3901.020350067943</v>
+        <v>3882.77384472871</v>
       </c>
       <c r="W23" t="n">
         <v>3548.251694797828</v>
       </c>
       <c r="X23" t="n">
-        <v>3193.032441875981</v>
+        <v>3174.785936536749</v>
       </c>
       <c r="Y23" t="n">
-        <v>2802.893109900169</v>
+        <v>2784.646604560937</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>96.2680880733033</v>
       </c>
       <c r="J24" t="n">
-        <v>135.811661464725</v>
+        <v>260.6417864517297</v>
       </c>
       <c r="K24" t="n">
-        <v>543.3733361657439</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L24" t="n">
-        <v>913.9727657461627</v>
+        <v>1277.624825309679</v>
       </c>
       <c r="M24" t="n">
-        <v>1216.069961696368</v>
+        <v>1579.722021259885</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.571416420861</v>
+        <v>1904.223475984378</v>
       </c>
       <c r="O24" t="n">
-        <v>1815.207055790029</v>
+        <v>2178.859115353546</v>
       </c>
       <c r="P24" t="n">
-        <v>2331.571443399709</v>
+        <v>2379.945362009688</v>
       </c>
       <c r="Q24" t="n">
         <v>2624.049592443911</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>246.9577656619777</v>
+        <v>602.7709644407794</v>
       </c>
       <c r="C25" t="n">
-        <v>96.2680880733033</v>
+        <v>452.0812868521048</v>
       </c>
       <c r="D25" t="n">
-        <v>96.2680880733033</v>
+        <v>452.0812868521048</v>
       </c>
       <c r="E25" t="n">
-        <v>96.2680880733033</v>
+        <v>322.4146986089441</v>
       </c>
       <c r="F25" t="n">
-        <v>96.2680880733033</v>
+        <v>322.4146986089441</v>
       </c>
       <c r="G25" t="n">
-        <v>96.2680880733033</v>
+        <v>322.4146986089441</v>
       </c>
       <c r="H25" t="n">
-        <v>96.2680880733033</v>
+        <v>190.0864276674805</v>
       </c>
       <c r="I25" t="n">
         <v>96.2680880733033</v>
       </c>
       <c r="J25" t="n">
-        <v>125.3123791383928</v>
+        <v>125.3123791383927</v>
       </c>
       <c r="K25" t="n">
         <v>291.3733884374618</v>
       </c>
       <c r="L25" t="n">
-        <v>554.3995472106274</v>
+        <v>554.3995472106272</v>
       </c>
       <c r="M25" t="n">
-        <v>841.1407378867511</v>
+        <v>841.1407378867509</v>
       </c>
       <c r="N25" t="n">
         <v>1126.923707646377</v>
@@ -6169,28 +6169,28 @@
         <v>1623.902226324715</v>
       </c>
       <c r="R25" t="n">
-        <v>1623.902226324715</v>
+        <v>1530.28081260159</v>
       </c>
       <c r="S25" t="n">
-        <v>1441.92143740005</v>
+        <v>1530.28081260159</v>
       </c>
       <c r="T25" t="n">
-        <v>1236.307189206232</v>
+        <v>1530.28081260159</v>
       </c>
       <c r="U25" t="n">
-        <v>965.4240939932026</v>
+        <v>1530.28081260159</v>
       </c>
       <c r="V25" t="n">
-        <v>930.4175497227882</v>
+        <v>1293.842829734935</v>
       </c>
       <c r="W25" t="n">
-        <v>659.2468850250601</v>
+        <v>1178.462043294869</v>
       </c>
       <c r="X25" t="n">
-        <v>449.5038394662753</v>
+        <v>968.7189977360842</v>
       </c>
       <c r="Y25" t="n">
-        <v>246.9577656619777</v>
+        <v>766.1729239317866</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2409.689345536468</v>
+        <v>2414.385148214977</v>
       </c>
       <c r="C26" t="n">
-        <v>2045.422631274565</v>
+        <v>2060.367174464008</v>
       </c>
       <c r="D26" t="n">
-        <v>1687.156932667815</v>
+        <v>1702.101475857258</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.36868006957</v>
+        <v>1316.313223259014</v>
       </c>
       <c r="F26" t="n">
-        <v>890.3827752799627</v>
+        <v>905.327318469406</v>
       </c>
       <c r="G26" t="n">
-        <v>474.2176923931539</v>
+        <v>489.1622355825971</v>
       </c>
       <c r="H26" t="n">
-        <v>180.3887102267623</v>
+        <v>180.3887102267622</v>
       </c>
       <c r="I26" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J26" t="n">
-        <v>361.6624738943028</v>
+        <v>361.6624738943024</v>
       </c>
       <c r="K26" t="n">
         <v>880.1646660902929</v>
@@ -6245,31 +6245,31 @@
         <v>4413.763132719398</v>
       </c>
       <c r="Q26" t="n">
-        <v>4756.597333965679</v>
+        <v>4756.597333965678</v>
       </c>
       <c r="R26" t="n">
-        <v>4813.404403665165</v>
+        <v>4813.404403665164</v>
       </c>
       <c r="S26" t="n">
-        <v>4678.215366816245</v>
+        <v>4682.911169494752</v>
       </c>
       <c r="T26" t="n">
-        <v>4482.399162606432</v>
+        <v>4472.150422095497</v>
       </c>
       <c r="U26" t="n">
-        <v>4228.781275261724</v>
+        <v>4233.477077940232</v>
       </c>
       <c r="V26" t="n">
-        <v>3897.718387918153</v>
+        <v>3902.414190596661</v>
       </c>
       <c r="W26" t="n">
-        <v>3559.894275837482</v>
+        <v>3549.645535326547</v>
       </c>
       <c r="X26" t="n">
-        <v>3186.428517576402</v>
+        <v>3176.179777065467</v>
       </c>
       <c r="Y26" t="n">
-        <v>2796.28918560059</v>
+        <v>2786.040445089655</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.1753737346811</v>
       </c>
       <c r="I27" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J27" t="n">
-        <v>135.811661464725</v>
+        <v>260.6417864517297</v>
       </c>
       <c r="K27" t="n">
-        <v>281.5527515232911</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L27" t="n">
-        <v>523.8421738297972</v>
+        <v>913.9727657461627</v>
       </c>
       <c r="M27" t="n">
-        <v>1264.775666908279</v>
+        <v>1216.069961696368</v>
       </c>
       <c r="N27" t="n">
-        <v>2063.82607223289</v>
+        <v>1540.571416420861</v>
       </c>
       <c r="O27" t="n">
-        <v>2338.461711602058</v>
+        <v>1815.207055790029</v>
       </c>
       <c r="P27" t="n">
-        <v>2539.5479582582</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q27" t="n">
         <v>2624.049592443911</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>939.2244226914293</v>
+        <v>535.4535429843346</v>
       </c>
       <c r="C28" t="n">
-        <v>785.2327829529656</v>
+        <v>381.461903245871</v>
       </c>
       <c r="D28" t="n">
-        <v>650.0606867300733</v>
+        <v>381.461903245871</v>
       </c>
       <c r="E28" t="n">
-        <v>517.0921363371234</v>
+        <v>381.461903245871</v>
       </c>
       <c r="F28" t="n">
-        <v>385.1467320286563</v>
+        <v>249.5164989374039</v>
       </c>
       <c r="G28" t="n">
-        <v>231.8983211645561</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="H28" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="I28" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J28" t="n">
-        <v>122.0761260353844</v>
+        <v>122.0761260353843</v>
       </c>
       <c r="K28" t="n">
-        <v>284.9008822314451</v>
+        <v>284.900882231445</v>
       </c>
       <c r="L28" t="n">
-        <v>544.6907879016022</v>
+        <v>544.6907879016021</v>
       </c>
       <c r="M28" t="n">
-        <v>828.1957254747175</v>
+        <v>828.1957254747174</v>
       </c>
       <c r="N28" t="n">
         <v>1110.742442131335</v>
@@ -6406,28 +6406,28 @@
         <v>1598.012201500648</v>
       </c>
       <c r="R28" t="n">
-        <v>1598.012201500648</v>
+        <v>1501.088825627734</v>
       </c>
       <c r="S28" t="n">
-        <v>1412.729450426194</v>
+        <v>1501.088825627734</v>
       </c>
       <c r="T28" t="n">
-        <v>1318.9733520408</v>
+        <v>1468.271589026258</v>
       </c>
       <c r="U28" t="n">
-        <v>1318.9733520408</v>
+        <v>1194.086531663439</v>
       </c>
       <c r="V28" t="n">
-        <v>1318.9733520408</v>
+        <v>954.3465866469957</v>
       </c>
       <c r="W28" t="n">
-        <v>1318.9733520408</v>
+        <v>954.3465866469957</v>
       </c>
       <c r="X28" t="n">
-        <v>1105.928344332226</v>
+        <v>741.3015789384215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1105.928344332226</v>
+        <v>535.4535429843346</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2409.689345536468</v>
+        <v>2429.32969140442</v>
       </c>
       <c r="C29" t="n">
-        <v>2055.6713717855</v>
+        <v>2060.367174464008</v>
       </c>
       <c r="D29" t="n">
-        <v>1697.405673178749</v>
+        <v>1702.101475857258</v>
       </c>
       <c r="E29" t="n">
-        <v>1311.617420580505</v>
+        <v>1316.313223259014</v>
       </c>
       <c r="F29" t="n">
         <v>905.327318469406</v>
@@ -6488,25 +6488,25 @@
         <v>4813.404403665164</v>
       </c>
       <c r="S29" t="n">
-        <v>4678.215366816244</v>
+        <v>4682.911169494753</v>
       </c>
       <c r="T29" t="n">
-        <v>4467.454619416988</v>
+        <v>4487.09496528494</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.83673207228</v>
+        <v>4248.421621129675</v>
       </c>
       <c r="V29" t="n">
-        <v>3897.718387918153</v>
+        <v>3917.358733786104</v>
       </c>
       <c r="W29" t="n">
-        <v>3559.894275837481</v>
+        <v>3564.59007851599</v>
       </c>
       <c r="X29" t="n">
-        <v>3186.428517576402</v>
+        <v>3191.12432025491</v>
       </c>
       <c r="Y29" t="n">
-        <v>2796.28918560059</v>
+        <v>2800.984988279099</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6546,22 @@
         <v>668.2034611527486</v>
       </c>
       <c r="L30" t="n">
-        <v>910.4928834592546</v>
+        <v>913.9727657461627</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.59007940946</v>
+        <v>1216.069961696368</v>
       </c>
       <c r="N30" t="n">
-        <v>1537.091534133953</v>
+        <v>1540.571416420861</v>
       </c>
       <c r="O30" t="n">
-        <v>1811.727173503121</v>
+        <v>1815.207055790029</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.221263409732</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q30" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R30" t="n">
         <v>2624.049592443911</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>202.3706031472326</v>
+        <v>346.6368006813701</v>
       </c>
       <c r="C31" t="n">
-        <v>202.3706031472326</v>
+        <v>346.6368006813701</v>
       </c>
       <c r="D31" t="n">
-        <v>202.3706031472326</v>
+        <v>346.6368006813701</v>
       </c>
       <c r="E31" t="n">
-        <v>96.26808807330328</v>
+        <v>346.6368006813701</v>
       </c>
       <c r="F31" t="n">
-        <v>96.26808807330328</v>
+        <v>346.6368006813701</v>
       </c>
       <c r="G31" t="n">
-        <v>96.26808807330328</v>
+        <v>193.3883898172696</v>
       </c>
       <c r="H31" t="n">
-        <v>96.26808807330328</v>
+        <v>193.3883898172696</v>
       </c>
       <c r="I31" t="n">
         <v>96.26808807330328</v>
       </c>
       <c r="J31" t="n">
-        <v>122.0761260353843</v>
+        <v>122.0761260353842</v>
       </c>
       <c r="K31" t="n">
-        <v>284.9008822314451</v>
+        <v>284.9008822314449</v>
       </c>
       <c r="L31" t="n">
-        <v>544.6907879016022</v>
+        <v>544.690787901602</v>
       </c>
       <c r="M31" t="n">
-        <v>828.1957254747176</v>
+        <v>828.1957254747174</v>
       </c>
       <c r="N31" t="n">
         <v>1110.742442131335</v>
@@ -6637,34 +6637,34 @@
         <v>1356.821906979781</v>
       </c>
       <c r="P31" t="n">
-        <v>1545.978700806855</v>
+        <v>1545.978700806854</v>
       </c>
       <c r="Q31" t="n">
         <v>1598.012201500648</v>
       </c>
       <c r="R31" t="n">
-        <v>1598.012201500648</v>
+        <v>1501.088825627734</v>
       </c>
       <c r="S31" t="n">
-        <v>1412.729450426194</v>
+        <v>1315.806074553279</v>
       </c>
       <c r="T31" t="n">
-        <v>1203.813240082586</v>
+        <v>1106.889864209671</v>
       </c>
       <c r="U31" t="n">
-        <v>929.6281827197677</v>
+        <v>1106.889864209671</v>
       </c>
       <c r="V31" t="n">
-        <v>689.888237703324</v>
+        <v>1040.002471191548</v>
       </c>
       <c r="W31" t="n">
-        <v>415.4156108558067</v>
+        <v>765.5298443440311</v>
       </c>
       <c r="X31" t="n">
-        <v>202.3706031472326</v>
+        <v>552.484836635457</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.3706031472326</v>
+        <v>346.6368006813701</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.800259157582</v>
+        <v>2429.32969140442</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.837742217171</v>
+        <v>2060.367174464008</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.57204361042</v>
+        <v>1702.101475857258</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.783791012176</v>
+        <v>1316.313223259014</v>
       </c>
       <c r="F32" t="n">
         <v>905.327318469406</v>
@@ -6725,25 +6725,25 @@
         <v>4813.404403665165</v>
       </c>
       <c r="S32" t="n">
-        <v>4678.215366816245</v>
+        <v>4727.744799063082</v>
       </c>
       <c r="T32" t="n">
-        <v>4467.454619416989</v>
+        <v>4516.984051663826</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.836732072281</v>
+        <v>4263.366164319118</v>
       </c>
       <c r="V32" t="n">
-        <v>3882.77384472871</v>
+        <v>3932.303276975548</v>
       </c>
       <c r="W32" t="n">
-        <v>3530.005189458596</v>
+        <v>3579.534621705433</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.539431197516</v>
+        <v>3206.068863444354</v>
       </c>
       <c r="Y32" t="n">
-        <v>2766.400099221704</v>
+        <v>2815.929531468542</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>260.6417864517297</v>
       </c>
       <c r="K33" t="n">
-        <v>668.2034611527486</v>
+        <v>597.0377883092319</v>
       </c>
       <c r="L33" t="n">
-        <v>910.4928834592546</v>
+        <v>839.327210615738</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.59007940946</v>
+        <v>1141.424406565943</v>
       </c>
       <c r="N33" t="n">
-        <v>1537.091534133953</v>
+        <v>1465.925861290436</v>
       </c>
       <c r="O33" t="n">
-        <v>1811.727173503121</v>
+        <v>2130.485196743567</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.221263409732</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q33" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R33" t="n">
         <v>2624.049592443911</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.6333144453062</v>
+        <v>653.6333144453064</v>
       </c>
       <c r="C34" t="n">
-        <v>554.3147332768552</v>
+        <v>554.3147332768556</v>
       </c>
       <c r="D34" t="n">
-        <v>473.8156956239755</v>
+        <v>473.8156956239759</v>
       </c>
       <c r="E34" t="n">
-        <v>395.5202038010384</v>
+        <v>395.5202038010389</v>
       </c>
       <c r="F34" t="n">
-        <v>318.2478580625841</v>
+        <v>318.2478580625846</v>
       </c>
       <c r="G34" t="n">
-        <v>219.6725057684966</v>
+        <v>219.6725057684964</v>
       </c>
       <c r="H34" t="n">
-        <v>138.7153312472565</v>
+        <v>138.7153312472563</v>
       </c>
       <c r="I34" t="n">
         <v>96.2680880733033</v>
@@ -6859,13 +6859,13 @@
         <v>175.6611907398539</v>
       </c>
       <c r="K34" t="n">
-        <v>392.0710116403843</v>
+        <v>392.0710116403841</v>
       </c>
       <c r="L34" t="n">
-        <v>705.4459820150109</v>
+        <v>705.4459820150106</v>
       </c>
       <c r="M34" t="n">
-        <v>1042.535984292596</v>
+        <v>1042.535984292595</v>
       </c>
       <c r="N34" t="n">
         <v>1378.667765653683</v>
@@ -6895,13 +6895,13 @@
         <v>1295.01067231623</v>
       </c>
       <c r="W34" t="n">
-        <v>1075.211104038725</v>
+        <v>1075.211104038726</v>
       </c>
       <c r="X34" t="n">
-        <v>916.839154900164</v>
+        <v>916.8391549001642</v>
       </c>
       <c r="Y34" t="n">
-        <v>765.6641775160898</v>
+        <v>765.66417751609</v>
       </c>
     </row>
     <row r="35">
@@ -6962,25 +6962,25 @@
         <v>4813.404403665165</v>
       </c>
       <c r="S35" t="n">
-        <v>4678.215366816245</v>
+        <v>4727.744799063082</v>
       </c>
       <c r="T35" t="n">
-        <v>4467.454619416989</v>
+        <v>4516.984051663826</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.836732072281</v>
+        <v>4263.366164319118</v>
       </c>
       <c r="V35" t="n">
-        <v>3882.77384472871</v>
+        <v>3932.303276975548</v>
       </c>
       <c r="W35" t="n">
-        <v>3530.005189458596</v>
+        <v>3579.534621705433</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.539431197516</v>
+        <v>3206.068863444354</v>
       </c>
       <c r="Y35" t="n">
-        <v>2766.400099221704</v>
+        <v>2815.929531468542</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>668.2034611527486</v>
       </c>
       <c r="L36" t="n">
-        <v>910.4928834592546</v>
+        <v>913.9727657461627</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.59007940946</v>
+        <v>1216.069961696368</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.091534133953</v>
+        <v>1540.571416420861</v>
       </c>
       <c r="O36" t="n">
-        <v>1811.727173503121</v>
+        <v>1815.207055790029</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.221263409732</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q36" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R36" t="n">
         <v>2624.049592443911</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.6333144453066</v>
+        <v>653.6333144453063</v>
       </c>
       <c r="C37" t="n">
-        <v>554.3147332768558</v>
+        <v>554.3147332768555</v>
       </c>
       <c r="D37" t="n">
-        <v>473.8156956239761</v>
+        <v>473.8156956239758</v>
       </c>
       <c r="E37" t="n">
-        <v>395.5202038010391</v>
+        <v>395.5202038010388</v>
       </c>
       <c r="F37" t="n">
-        <v>318.2478580625848</v>
+        <v>318.2478580625846</v>
       </c>
       <c r="G37" t="n">
-        <v>219.6725057684968</v>
+        <v>219.6725057684969</v>
       </c>
       <c r="H37" t="n">
         <v>138.7153312472568</v>
@@ -7093,19 +7093,19 @@
         <v>96.2680880733033</v>
       </c>
       <c r="J37" t="n">
-        <v>175.6611907398539</v>
+        <v>175.6611907398537</v>
       </c>
       <c r="K37" t="n">
-        <v>392.0710116403841</v>
+        <v>392.071011640384</v>
       </c>
       <c r="L37" t="n">
-        <v>705.4459820150106</v>
+        <v>705.4459820150107</v>
       </c>
       <c r="M37" t="n">
         <v>1042.535984292595</v>
       </c>
       <c r="N37" t="n">
-        <v>1378.667765653683</v>
+        <v>1378.667765653682</v>
       </c>
       <c r="O37" t="n">
         <v>1678.332295206598</v>
@@ -7132,13 +7132,13 @@
         <v>1295.01067231623</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.211104038726</v>
+        <v>1075.211104038725</v>
       </c>
       <c r="X37" t="n">
-        <v>916.8391549001643</v>
+        <v>916.839154900164</v>
       </c>
       <c r="Y37" t="n">
-        <v>765.6641775160903</v>
+        <v>765.6641775160899</v>
       </c>
     </row>
     <row r="38">
@@ -7175,7 +7175,7 @@
         <v>361.6624738943024</v>
       </c>
       <c r="K38" t="n">
-        <v>880.1646660902932</v>
+        <v>880.1646660902929</v>
       </c>
       <c r="L38" t="n">
         <v>1575.689112151772</v>
@@ -7205,19 +7205,19 @@
         <v>4467.454619416988</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.83673207228</v>
+        <v>4263.366164319118</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.773844728709</v>
+        <v>3932.303276975548</v>
       </c>
       <c r="W38" t="n">
-        <v>3530.005189458595</v>
+        <v>3579.534621705433</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.539431197515</v>
+        <v>3206.068863444354</v>
       </c>
       <c r="Y38" t="n">
-        <v>2766.400099221703</v>
+        <v>2815.929531468542</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>668.2034611527486</v>
       </c>
       <c r="L39" t="n">
-        <v>910.4928834592546</v>
+        <v>913.9727657461627</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.59007940946</v>
+        <v>1216.069961696368</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.091534133953</v>
+        <v>1540.571416420861</v>
       </c>
       <c r="O39" t="n">
-        <v>1811.727173503121</v>
+        <v>1815.207055790029</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.221263409732</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q39" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R39" t="n">
         <v>2624.049592443911</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.6333144453062</v>
+        <v>653.6333144453067</v>
       </c>
       <c r="C40" t="n">
-        <v>554.3147332768553</v>
+        <v>554.3147332768558</v>
       </c>
       <c r="D40" t="n">
-        <v>473.8156956239757</v>
+        <v>473.8156956239761</v>
       </c>
       <c r="E40" t="n">
-        <v>395.5202038010386</v>
+        <v>395.520203801039</v>
       </c>
       <c r="F40" t="n">
-        <v>318.2478580625843</v>
+        <v>318.2478580625846</v>
       </c>
       <c r="G40" t="n">
-        <v>219.6725057684966</v>
+        <v>219.6725057684969</v>
       </c>
       <c r="H40" t="n">
         <v>138.7153312472568</v>
@@ -7339,7 +7339,7 @@
         <v>705.4459820150107</v>
       </c>
       <c r="M40" t="n">
-        <v>1042.535984292595</v>
+        <v>1042.535984292596</v>
       </c>
       <c r="N40" t="n">
         <v>1378.667765653683</v>
@@ -7372,10 +7372,10 @@
         <v>1075.211104038726</v>
       </c>
       <c r="X40" t="n">
-        <v>916.8391549001643</v>
+        <v>916.8391549001644</v>
       </c>
       <c r="Y40" t="n">
-        <v>765.6641775160898</v>
+        <v>765.6641775160904</v>
       </c>
     </row>
     <row r="41">
@@ -7418,10 +7418,10 @@
         <v>1575.689112151772</v>
       </c>
       <c r="M41" t="n">
-        <v>2366.200617081632</v>
+        <v>2366.200617081631</v>
       </c>
       <c r="N41" t="n">
-        <v>3154.871427069777</v>
+        <v>3154.871427069776</v>
       </c>
       <c r="O41" t="n">
         <v>3854.403271039755</v>
@@ -7436,10 +7436,10 @@
         <v>4813.404403665164</v>
       </c>
       <c r="S41" t="n">
-        <v>4727.744799063082</v>
+        <v>4678.215366816244</v>
       </c>
       <c r="T41" t="n">
-        <v>4516.984051663826</v>
+        <v>4467.454619416988</v>
       </c>
       <c r="U41" t="n">
         <v>4263.366164319118</v>
@@ -7494,22 +7494,22 @@
         <v>668.2034611527486</v>
       </c>
       <c r="L42" t="n">
-        <v>910.4928834592546</v>
+        <v>913.9727657461627</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.59007940946</v>
+        <v>1216.069961696368</v>
       </c>
       <c r="N42" t="n">
-        <v>1537.091534133953</v>
+        <v>1540.571416420861</v>
       </c>
       <c r="O42" t="n">
-        <v>1811.727173503121</v>
+        <v>1815.207055790029</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.221263409732</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q42" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R42" t="n">
         <v>2624.049592443911</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.6333144453065</v>
+        <v>653.6333144453066</v>
       </c>
       <c r="C43" t="n">
-        <v>554.3147332768556</v>
+        <v>554.3147332768558</v>
       </c>
       <c r="D43" t="n">
-        <v>473.815695623976</v>
+        <v>473.8156956239761</v>
       </c>
       <c r="E43" t="n">
-        <v>395.5202038010389</v>
+        <v>395.5202038010391</v>
       </c>
       <c r="F43" t="n">
-        <v>318.2478580625846</v>
+        <v>318.2478580625848</v>
       </c>
       <c r="G43" t="n">
-        <v>219.6725057684969</v>
+        <v>219.6725057684971</v>
       </c>
       <c r="H43" t="n">
         <v>138.7153312472568</v>
@@ -7567,19 +7567,19 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J43" t="n">
-        <v>175.6611907398538</v>
+        <v>175.6611907398539</v>
       </c>
       <c r="K43" t="n">
-        <v>392.071011640384</v>
+        <v>392.0710116403841</v>
       </c>
       <c r="L43" t="n">
-        <v>705.4459820150107</v>
+        <v>705.4459820150106</v>
       </c>
       <c r="M43" t="n">
         <v>1042.535984292595</v>
       </c>
       <c r="N43" t="n">
-        <v>1378.667765653682</v>
+        <v>1378.667765653683</v>
       </c>
       <c r="O43" t="n">
         <v>1678.332295206598</v>
@@ -7594,10 +7594,10 @@
         <v>1984.442401833503</v>
       </c>
       <c r="S43" t="n">
-        <v>1853.832709329062</v>
+        <v>1853.832709329061</v>
       </c>
       <c r="T43" t="n">
-        <v>1699.589557555467</v>
+        <v>1699.589557555466</v>
       </c>
       <c r="U43" t="n">
         <v>1480.077558762661</v>
@@ -7609,10 +7609,10 @@
         <v>1075.211104038726</v>
       </c>
       <c r="X43" t="n">
-        <v>916.8391549001642</v>
+        <v>916.8391549001643</v>
       </c>
       <c r="Y43" t="n">
-        <v>765.6641775160901</v>
+        <v>765.6641775160903</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J44" t="n">
-        <v>361.6624738943025</v>
+        <v>361.6624738943024</v>
       </c>
       <c r="K44" t="n">
-        <v>880.1646660902929</v>
+        <v>880.1646660902927</v>
       </c>
       <c r="L44" t="n">
         <v>1575.689112151772</v>
@@ -7673,22 +7673,22 @@
         <v>4813.404403665164</v>
       </c>
       <c r="S44" t="n">
-        <v>4678.215366816244</v>
+        <v>4727.744799063082</v>
       </c>
       <c r="T44" t="n">
-        <v>4467.454619416988</v>
+        <v>4516.984051663826</v>
       </c>
       <c r="U44" t="n">
-        <v>4213.83673207228</v>
+        <v>4263.366164319118</v>
       </c>
       <c r="V44" t="n">
-        <v>3882.773844728709</v>
+        <v>3932.303276975548</v>
       </c>
       <c r="W44" t="n">
-        <v>3530.005189458595</v>
+        <v>3579.534621705433</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.539431197515</v>
+        <v>3206.068863444354</v>
       </c>
       <c r="Y44" t="n">
         <v>2815.929531468542</v>
@@ -7713,7 +7713,7 @@
         <v>504.8056386207909</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2710806476758</v>
+        <v>358.2710806476759</v>
       </c>
       <c r="G45" t="n">
         <v>221.3233704294983</v>
@@ -7725,25 +7725,25 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J45" t="n">
-        <v>135.811661464725</v>
+        <v>260.6417864517297</v>
       </c>
       <c r="K45" t="n">
-        <v>281.5527515232911</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L45" t="n">
-        <v>890.9741156802219</v>
+        <v>910.4928834592546</v>
       </c>
       <c r="M45" t="n">
-        <v>1654.119324742927</v>
+        <v>1212.59007940946</v>
       </c>
       <c r="N45" t="n">
-        <v>1978.62077946742</v>
+        <v>1537.091534133953</v>
       </c>
       <c r="O45" t="n">
-        <v>2338.461711602058</v>
+        <v>1815.207055790029</v>
       </c>
       <c r="P45" t="n">
-        <v>2539.5479582582</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q45" t="n">
         <v>2624.049592443911</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.6333144453064</v>
+        <v>653.6333144453062</v>
       </c>
       <c r="C46" t="n">
-        <v>554.3147332768555</v>
+        <v>554.3147332768552</v>
       </c>
       <c r="D46" t="n">
-        <v>473.8156956239757</v>
+        <v>473.8156956239755</v>
       </c>
       <c r="E46" t="n">
-        <v>395.5202038010386</v>
+        <v>395.5202038010384</v>
       </c>
       <c r="F46" t="n">
-        <v>318.2478580625843</v>
+        <v>318.2478580625841</v>
       </c>
       <c r="G46" t="n">
-        <v>219.6725057684966</v>
+        <v>219.6725057684964</v>
       </c>
       <c r="H46" t="n">
         <v>138.7153312472568</v>
@@ -7804,13 +7804,13 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J46" t="n">
-        <v>175.6611907398541</v>
+        <v>175.6611907398538</v>
       </c>
       <c r="K46" t="n">
-        <v>392.0710116403843</v>
+        <v>392.071011640384</v>
       </c>
       <c r="L46" t="n">
-        <v>705.4459820150109</v>
+        <v>705.4459820150107</v>
       </c>
       <c r="M46" t="n">
         <v>1042.535984292596</v>
@@ -7831,10 +7831,10 @@
         <v>1984.442401833503</v>
       </c>
       <c r="S46" t="n">
-        <v>1853.832709329062</v>
+        <v>1853.832709329061</v>
       </c>
       <c r="T46" t="n">
-        <v>1699.589557555467</v>
+        <v>1699.589557555466</v>
       </c>
       <c r="U46" t="n">
         <v>1480.077558762661</v>
@@ -7843,13 +7843,13 @@
         <v>1295.01067231623</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.211104038726</v>
+        <v>1075.211104038725</v>
       </c>
       <c r="X46" t="n">
-        <v>916.8391549001644</v>
+        <v>916.839154900164</v>
       </c>
       <c r="Y46" t="n">
-        <v>765.66417751609</v>
+        <v>765.6641775160898</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>186.6702232840452</v>
+        <v>311.3650978177534</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093848</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
         <v>381.709495280812</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>315.0966817784007</v>
+        <v>182.7401044550566</v>
       </c>
       <c r="M6" t="n">
         <v>392.8337743093848</v>
@@ -8307,7 +8307,7 @@
         <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
-        <v>130.8188201934042</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>443.2689869982585</v>
+        <v>138.1927697120943</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.07704355881845</v>
+        <v>36.07704355881843</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.515032613038045</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>204.1476940963851</v>
       </c>
       <c r="R15" t="n">
-        <v>36.07704355881845</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,19 +9243,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>287.3057790257744</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>86.06595228835283</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>129.6060679534473</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>161.2147436853654</v>
       </c>
       <c r="R24" t="n">
         <v>36.07704355881846</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.515032613038585</v>
       </c>
       <c r="M27" t="n">
-        <v>443.2689869982587</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>36.07704355881846</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.515032613038585</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>312.5331750004733</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>192.5807189888243</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>312.5331750004733</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>3.515032613038585</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>312.5331750004733</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711652</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>3.515032613038585</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>312.5331750004733</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298227</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3.515032613038585</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>312.5331750004733</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928329</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599046</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>86.06595228835255</v>
+        <v>3.515032613038557</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>36.07704355881845</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.563037653646</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>163.9778785703365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.8000859895978</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>107.4802973434422</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.9560787929671</v>
       </c>
       <c r="T13" t="n">
         <v>218.3532034694291</v>
       </c>
       <c r="U13" t="n">
-        <v>139.5030366222254</v>
+        <v>74.53896190385868</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>248.8687007955367</v>
       </c>
       <c r="W13" t="n">
         <v>283.2540558082997</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.563037653646</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>163.9778785703365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>145.346530489921</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>143.1650201182779</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>142.1521054946399</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.242081984717</v>
@@ -23671,7 +23671,7 @@
         <v>145.8000859895978</v>
       </c>
       <c r="I16" t="n">
-        <v>107.6752539557841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>54.48971937391769</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.9693620184477</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>248.8687007955367</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2540558082997</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>222.4407128607458</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.3157108238035</v>
+        <v>111.1524249972965</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.563037653646</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>163.9778785703366</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>143.1650201182779</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>142.15210549464</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.242081984717</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.8000859895978</v>
       </c>
       <c r="I19" t="n">
         <v>107.6752539557842</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.4802973434423</v>
+        <v>107.4802973434422</v>
       </c>
       <c r="S19" t="n">
-        <v>194.9560787929672</v>
+        <v>194.9560787929671</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>218.3532034694291</v>
       </c>
       <c r="U19" t="n">
-        <v>150.6802570604704</v>
+        <v>282.9693620184477</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>248.8687007955367</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>259.1047394328787</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>215.3157108238035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>163.9778785703365</v>
       </c>
       <c r="D22" t="n">
-        <v>138.7700201376703</v>
+        <v>113.7895575298734</v>
       </c>
       <c r="E22" t="n">
         <v>143.1650201182779</v>
       </c>
       <c r="F22" t="n">
-        <v>142.15210549464</v>
+        <v>142.1521054946399</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.242081984717</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.8000859895978</v>
       </c>
       <c r="I22" t="n">
         <v>107.6752539557842</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.4802973434422</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.9560787929671</v>
       </c>
       <c r="T22" t="n">
-        <v>218.3532034694292</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.9693620184478</v>
+        <v>282.9693620184477</v>
       </c>
       <c r="V22" t="n">
-        <v>248.8687007955368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2540558082998</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.7679398960971</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>130.5514327323722</v>
       </c>
       <c r="E25" t="n">
-        <v>128.369922360729</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>127.3570077370911</v>
       </c>
       <c r="G25" t="n">
-        <v>148.4469842271681</v>
+        <v>148.4469842271682</v>
       </c>
       <c r="H25" t="n">
-        <v>131.004988232049</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>92.8801561982353</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>92.68519958589337</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>180.1609810354183</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.5581057118803</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>268.1742642608989</v>
       </c>
       <c r="V25" t="n">
-        <v>199.4171242102775</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.2319794750853</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>165.0368824243885</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.8203752606636</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>131.6388648890204</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.2739307603404</v>
       </c>
       <c r="I28" t="n">
-        <v>96.14909872652662</v>
+        <v>96.14909872652667</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>95.95414211418469</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.4299235637096</v>
       </c>
       <c r="T28" t="n">
-        <v>114.0085108386318</v>
+        <v>174.3379840047105</v>
       </c>
       <c r="U28" t="n">
-        <v>271.4432067891902</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>237.3425455662791</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>271.7279005790422</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.7895555945459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.0368824243884</v>
+        <v>165.0368824243885</v>
       </c>
       <c r="C31" t="n">
         <v>152.451723341079</v>
       </c>
       <c r="D31" t="n">
-        <v>133.8203752606635</v>
+        <v>133.8203752606636</v>
       </c>
       <c r="E31" t="n">
-        <v>26.59737496583038</v>
+        <v>131.6388648890204</v>
       </c>
       <c r="F31" t="n">
         <v>130.6259502653824</v>
       </c>
       <c r="G31" t="n">
-        <v>151.7159267554594</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.2739307603403</v>
+        <v>134.2739307603404</v>
       </c>
       <c r="I31" t="n">
-        <v>96.14909872652662</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>95.95414211418469</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>271.4432067891902</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>171.1240264783375</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>203.7895555945459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26326,22 +26326,22 @@
         <v>97934.59806764113</v>
       </c>
       <c r="G2" t="n">
-        <v>97934.59806764119</v>
+        <v>97934.59806764105</v>
       </c>
       <c r="H2" t="n">
-        <v>97934.59806764108</v>
+        <v>97934.59806764114</v>
       </c>
       <c r="I2" t="n">
-        <v>98992.77896749575</v>
+        <v>98992.77896749576</v>
       </c>
       <c r="J2" t="n">
+        <v>98758.97635241019</v>
+      </c>
+      <c r="K2" t="n">
         <v>98758.97635241016</v>
       </c>
-      <c r="K2" t="n">
-        <v>98758.97635241014</v>
-      </c>
       <c r="L2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330353</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>431478.9618558294</v>
+        <v>431478.9618558295</v>
       </c>
       <c r="E3" t="n">
-        <v>516456.2163232842</v>
+        <v>516456.2163232841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11836.07820603916</v>
+        <v>11836.07820603905</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>68875.69873124979</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>147332.9129213121</v>
+        <v>147332.9129213122</v>
       </c>
       <c r="M3" t="n">
         <v>131844.8222332172</v>
       </c>
       <c r="N3" t="n">
-        <v>11836.07820603915</v>
+        <v>11836.078206039</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>296088.6190402467</v>
+      </c>
+      <c r="C4" t="n">
         <v>296088.6190402466</v>
-      </c>
-      <c r="C4" t="n">
-        <v>296088.6190402467</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>25582.74290156905</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25582.74290156905</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25582.74290156908</v>
+      </c>
+      <c r="H4" t="n">
         <v>25582.74290156904</v>
       </c>
-      <c r="F4" t="n">
-        <v>25582.74290156904</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25582.74290156898</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25582.74290156901</v>
-      </c>
       <c r="I4" t="n">
-        <v>30451.06738530039</v>
+        <v>30451.06738530038</v>
       </c>
       <c r="J4" t="n">
-        <v>29375.42238401806</v>
+        <v>29375.42238401805</v>
       </c>
       <c r="K4" t="n">
-        <v>29375.42238401807</v>
+        <v>29375.42238401809</v>
       </c>
       <c r="L4" t="n">
-        <v>47185.68170495131</v>
+        <v>47185.6817049513</v>
       </c>
       <c r="M4" t="n">
         <v>47185.68170495132</v>
       </c>
       <c r="N4" t="n">
-        <v>47185.68170495136</v>
+        <v>47185.68170495133</v>
       </c>
       <c r="O4" t="n">
-        <v>47185.68170495133</v>
+        <v>47185.68170495135</v>
       </c>
       <c r="P4" t="n">
-        <v>47185.68170495135</v>
+        <v>47185.68170495134</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91329.87233312159</v>
+        <v>91329.87233312157</v>
       </c>
       <c r="F5" t="n">
-        <v>91329.87233312159</v>
+        <v>91329.87233312157</v>
       </c>
       <c r="G5" t="n">
         <v>91329.87233312157</v>
       </c>
       <c r="H5" t="n">
-        <v>91329.87233312156</v>
+        <v>91329.87233312157</v>
       </c>
       <c r="I5" t="n">
-        <v>92573.68140650095</v>
+        <v>92573.68140650094</v>
       </c>
       <c r="J5" t="n">
-        <v>92298.86467709002</v>
+        <v>92298.86467708999</v>
       </c>
       <c r="K5" t="n">
-        <v>92298.86467709001</v>
+        <v>92298.86467708999</v>
       </c>
       <c r="L5" t="n">
         <v>96849.2109444032</v>
@@ -26503,13 +26503,13 @@
         <v>96849.2109444032</v>
       </c>
       <c r="N5" t="n">
+        <v>96849.21094440318</v>
+      </c>
+      <c r="O5" t="n">
         <v>96849.2109444032</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>96849.21094440318</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96849.2109444032</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-353987.2600889941</v>
       </c>
       <c r="C6" t="n">
-        <v>-243592.8052140447</v>
+        <v>-243592.8052140446</v>
       </c>
       <c r="D6" t="n">
         <v>-577340.6864727279</v>
       </c>
       <c r="E6" t="n">
-        <v>-535434.2334903337</v>
+        <v>-535528.1459536414</v>
       </c>
       <c r="F6" t="n">
-        <v>-18978.0171670495</v>
+        <v>-19071.92963035738</v>
       </c>
       <c r="G6" t="n">
-        <v>-18978.01716704933</v>
+        <v>-19071.92963035748</v>
       </c>
       <c r="H6" t="n">
-        <v>-18978.01716704945</v>
+        <v>-19071.92963035735</v>
       </c>
       <c r="I6" t="n">
-        <v>-35868.04803034475</v>
+        <v>-35940.7968756554</v>
       </c>
       <c r="J6" t="n">
-        <v>-91791.00943994778</v>
+        <v>-91868.43433756016</v>
       </c>
       <c r="K6" t="n">
-        <v>-22915.31070869793</v>
+        <v>-22992.73560631043</v>
       </c>
       <c r="L6" t="n">
-        <v>-188737.5843376313</v>
+        <v>-188737.5843376314</v>
       </c>
       <c r="M6" t="n">
         <v>-173249.4936495364</v>
       </c>
       <c r="N6" t="n">
-        <v>-53240.7496223584</v>
+        <v>-53240.7496223582</v>
       </c>
       <c r="O6" t="n">
-        <v>-41404.67141631921</v>
+        <v>-41404.67141631922</v>
       </c>
       <c r="P6" t="n">
-        <v>-41404.67141631924</v>
+        <v>-41404.67141631922</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>3.268942528291328</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.268942528291327</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.268942528291327</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.26894252829131</v>
       </c>
-      <c r="F2" t="n">
-        <v>3.26894252829131</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.26894252829125</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.268942528291222</v>
-      </c>
       <c r="I2" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="J2" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="K2" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="L2" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="M2" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="N2" t="n">
+        <v>68.92142574186147</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.9214257418615</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.92142574186147</v>
       </c>
       <c r="P2" t="n">
         <v>68.92142574186147</v>
@@ -26741,13 +26741,13 @@
         <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>820.7022324770711</v>
+        <v>820.7022324770712</v>
       </c>
       <c r="F3" t="n">
-        <v>820.7022324770711</v>
+        <v>820.702232477071</v>
       </c>
       <c r="G3" t="n">
         <v>820.702232477071</v>
@@ -26777,7 +26777,7 @@
         <v>820.702232477071</v>
       </c>
       <c r="P3" t="n">
-        <v>820.7022324770711</v>
+        <v>820.702232477071</v>
       </c>
     </row>
     <row r="4">
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.995204332975845e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14.79509775754895</v>
+        <v>14.79509775754881</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.12632798431254</v>
+        <v>54.1263279843127</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>14.79509775754893</v>
+        <v>14.79509775754875</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>354.7302815302972</v>
+        <v>354.7302815302974</v>
       </c>
       <c r="E3" t="n">
         <v>442.9585682599845</v>
@@ -27018,7 +27018,7 @@
         <v>411.045238802889</v>
       </c>
       <c r="E4" t="n">
-        <v>529.0638281617358</v>
+        <v>529.0638281617356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516664</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>411.0452388028892</v>
       </c>
       <c r="M4" t="n">
-        <v>529.0638281617358</v>
+        <v>529.0638281617356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14.79509775754895</v>
+        <v>14.79509775754881</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>411.045238802889</v>
       </c>
       <c r="M4" t="n">
-        <v>529.0638281617358</v>
+        <v>529.0638281617356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,31 +27376,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>308.5478600951403</v>
       </c>
       <c r="I2" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>98.91247869356087</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>101.9694740713822</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>18.07225272364431</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,7 +27555,7 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>11.81540091395209</v>
       </c>
       <c r="J4" t="n">
         <v>90.42516245839145</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>226.8229512143216</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D5" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,10 +27634,10 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>104.738071493383</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
         <v>251.3382516189322</v>
@@ -27676,7 +27676,7 @@
         <v>64.51022451846831</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>290.042639295945</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
         <v>199.9652070090748</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>156.1076161675059</v>
+        <v>164.3196672135921</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.99691107496247</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27828,7 +27828,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381042</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>333.415037428428</v>
+        <v>397.8152303465146</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>77.28404477295275</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>231.9539690847626</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="C11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="D11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="E11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="F11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="G11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="H11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="I11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="T11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="U11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="V11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="W11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="X11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="C13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="D13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="E13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="F13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="G13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="H13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="I13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="J13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="K13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="L13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="M13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="N13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="O13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="P13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="R13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="S13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="U13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="V13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="W13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="X13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291328</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="C14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="D14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="E14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="F14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="G14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="H14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="I14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="T14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="U14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="V14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="W14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="X14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="C16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="D16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="E16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="F16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="G16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="H16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="I16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="J16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="K16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="L16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="M16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="N16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="O16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="P16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="R16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="S16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="T16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="U16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="V16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="W16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="X16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.26894252829131</v>
+        <v>3.268942528291327</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="C17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="D17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="E17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="F17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="G17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="H17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="I17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="T17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="U17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="V17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="W17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="X17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291802</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="C19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="D19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="E19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="F19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="G19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="H19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="I19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="J19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="K19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="L19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="M19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="N19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="O19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="P19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="R19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="S19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="T19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="U19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="V19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="W19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="X19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.26894252829125</v>
+        <v>3.268942528291327</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="C20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="D20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="E20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="F20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="G20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="H20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="I20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="T20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="U20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="V20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="W20" t="n">
-        <v>3.268942528292541</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="X20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="C22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="D22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="E22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="F22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="G22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="H22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="I22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="J22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="K22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="L22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="M22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="N22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="O22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="P22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="R22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="S22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="T22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="U22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="V22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="W22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="X22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.268942528291222</v>
+        <v>3.26894252829131</v>
       </c>
     </row>
     <row r="23">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>12.90605735268912</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,13 +29050,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>12.9060573526889</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.06404028584017</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29098,10 +29098,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="X23" t="n">
-        <v>18.06404028584017</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="C25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="D25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="E25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="F25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="G25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="H25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="I25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="J25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="K25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="L25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="M25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="N25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="O25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="P25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="R25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="S25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="T25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="U25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="V25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="W25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="X25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.06404028584017</v>
+        <v>18.06404028584012</v>
       </c>
     </row>
     <row r="26">
@@ -29272,10 +29272,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="C26" t="n">
-        <v>4.648844651723209</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14.79509775754886</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,19 +29323,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.648844651723749</v>
       </c>
       <c r="T26" t="n">
-        <v>14.79509775754886</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>14.79509775754886</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="C28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="D28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="E28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="F28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="G28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="H28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="I28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="J28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="K28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="L28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="M28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="N28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="O28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="P28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="R28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="S28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="T28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="U28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="V28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="W28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="X28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
     </row>
     <row r="29">
@@ -29509,10 +29509,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="C29" t="n">
-        <v>14.79509775754886</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.648844651723664</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29560,19 +29560,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.64884465172463</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="V29" t="n">
-        <v>14.79509775754886</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>14.79509775754886</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="C31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="D31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="E31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="F31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="G31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="H31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="I31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="J31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="K31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="L31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="M31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="N31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="O31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="P31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="R31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="S31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="T31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="U31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="V31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="W31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="X31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.79509775754886</v>
+        <v>14.7950977575488</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>49.03413792436925</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>49.03413792436889</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="C34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="D34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="E34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="F34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="G34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="H34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="I34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="J34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="K34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="L34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="M34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="N34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="O34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="P34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="R34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="S34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="T34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="U34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="V34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="W34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="X34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.92142574186146</v>
+        <v>68.9214257418615</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>49.03413792436908</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>49.03413792436889</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="C37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="D37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="E37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="F37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="G37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="H37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="I37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="J37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="K37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="L37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="M37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="N37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="O37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="P37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="R37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="S37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="T37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="U37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="V37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="W37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="X37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.92142574186151</v>
+        <v>68.92142574186153</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>49.03413792436999</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>49.03413792436979</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="C40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="D40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="E40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="F40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="G40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="H40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="I40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="J40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="K40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="L40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="M40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="N40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="O40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="P40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="R40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="S40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="T40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="U40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="V40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="W40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="X40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.9214257418615</v>
+        <v>68.92142574186147</v>
       </c>
     </row>
     <row r="41">
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>49.03413792436979</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="C43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="D43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="E43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="F43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="G43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="H43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="I43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="J43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="K43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="L43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="M43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="N43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="O43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="P43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="R43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="S43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="T43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="U43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="V43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="W43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="X43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.92142574186147</v>
+        <v>68.9214257418615</v>
       </c>
     </row>
     <row r="44">
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>49.03413792436979</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>49.0341379243701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31039,19 +31039,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
         <v>14.5997362345548</v>
@@ -31069,10 +31069,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
         <v>2.10821088633251</v>
@@ -31081,7 +31081,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31127,10 +31127,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
         <v>10.74790103688213</v>
@@ -31139,7 +31139,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
         <v>11.77742425104019</v>
@@ -31148,19 +31148,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,10 +31197,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
         <v>1.248004425047526</v>
@@ -31209,37 +31209,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,19 +31276,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I5" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
         <v>14.5997362345548</v>
@@ -31306,10 +31306,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S5" t="n">
         <v>2.10821088633251</v>
@@ -31318,7 +31318,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31364,10 +31364,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
         <v>10.74790103688213</v>
@@ -31376,7 +31376,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
         <v>11.77742425104019</v>
@@ -31385,19 +31385,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
         <v>1.248004425047526</v>
@@ -31446,37 +31446,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,19 +31759,19 @@
         <v>127.1964736384816</v>
       </c>
       <c r="J11" t="n">
-        <v>280.024426547541</v>
+        <v>280.0244265475411</v>
       </c>
       <c r="K11" t="n">
-        <v>419.6840265505738</v>
+        <v>419.6840265505739</v>
       </c>
       <c r="L11" t="n">
-        <v>520.6551459361825</v>
+        <v>520.6551459361826</v>
       </c>
       <c r="M11" t="n">
-        <v>579.3291693605609</v>
+        <v>579.329169360561</v>
       </c>
       <c r="N11" t="n">
-        <v>588.7033209908141</v>
+        <v>588.7033209908142</v>
       </c>
       <c r="O11" t="n">
         <v>555.8958523508387</v>
@@ -31780,7 +31780,7 @@
         <v>474.4442488763555</v>
       </c>
       <c r="Q11" t="n">
-        <v>356.2878721905861</v>
+        <v>356.2878721905862</v>
       </c>
       <c r="R11" t="n">
         <v>207.2499964254787</v>
@@ -31829,19 +31829,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.765284047214832</v>
+        <v>1.765284047214833</v>
       </c>
       <c r="H12" t="n">
         <v>17.04892750862746</v>
       </c>
       <c r="I12" t="n">
-        <v>60.77842004665103</v>
+        <v>60.77842004665104</v>
       </c>
       <c r="J12" t="n">
         <v>166.7806300923452</v>
       </c>
       <c r="K12" t="n">
-        <v>285.0546612557389</v>
+        <v>285.054661255739</v>
       </c>
       <c r="L12" t="n">
         <v>383.2911699884662</v>
@@ -31853,7 +31853,7 @@
         <v>459.120959279791</v>
       </c>
       <c r="O12" t="n">
-        <v>420.0059811809781</v>
+        <v>420.0059811809782</v>
       </c>
       <c r="P12" t="n">
         <v>337.0918282791201</v>
@@ -31868,7 +31868,7 @@
         <v>32.78937692962636</v>
       </c>
       <c r="T12" t="n">
-        <v>7.115333506098378</v>
+        <v>7.115333506098379</v>
       </c>
       <c r="U12" t="n">
         <v>0.1161371083693969</v>
@@ -31914,7 +31914,7 @@
         <v>13.15814398955043</v>
       </c>
       <c r="I13" t="n">
-        <v>44.50627844318281</v>
+        <v>44.50627844318282</v>
       </c>
       <c r="J13" t="n">
         <v>104.6328075733472</v>
@@ -31929,7 +31929,7 @@
         <v>231.9896490918383</v>
       </c>
       <c r="N13" t="n">
-        <v>226.4734537587958</v>
+        <v>226.4734537587959</v>
       </c>
       <c r="O13" t="n">
         <v>209.1848903369427</v>
@@ -31941,16 +31941,16 @@
         <v>123.9260371040377</v>
       </c>
       <c r="R13" t="n">
-        <v>66.54415150543593</v>
+        <v>66.54415150543595</v>
       </c>
       <c r="S13" t="n">
-        <v>25.79157671571384</v>
+        <v>25.79157671571385</v>
       </c>
       <c r="T13" t="n">
-        <v>6.323443430561038</v>
+        <v>6.323443430561039</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08072480975184314</v>
+        <v>0.08072480975184315</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,13 +31990,13 @@
         <v>3.299305457194253</v>
       </c>
       <c r="H14" t="n">
-        <v>33.78901201349066</v>
+        <v>33.78901201349065</v>
       </c>
       <c r="I14" t="n">
-        <v>127.1964736384816</v>
+        <v>127.1964736384815</v>
       </c>
       <c r="J14" t="n">
-        <v>280.024426547541</v>
+        <v>280.0244265475409</v>
       </c>
       <c r="K14" t="n">
         <v>419.6840265505738</v>
@@ -32005,16 +32005,16 @@
         <v>520.6551459361825</v>
       </c>
       <c r="M14" t="n">
-        <v>579.3291693605609</v>
+        <v>579.3291693605607</v>
       </c>
       <c r="N14" t="n">
-        <v>588.7033209908141</v>
+        <v>588.7033209908139</v>
       </c>
       <c r="O14" t="n">
-        <v>555.8958523508387</v>
+        <v>555.8958523508386</v>
       </c>
       <c r="P14" t="n">
-        <v>474.4442488763555</v>
+        <v>474.4442488763554</v>
       </c>
       <c r="Q14" t="n">
         <v>356.2878721905861</v>
@@ -32023,7 +32023,7 @@
         <v>207.2499964254787</v>
       </c>
       <c r="S14" t="n">
-        <v>75.18292310581413</v>
+        <v>75.18292310581411</v>
       </c>
       <c r="T14" t="n">
         <v>14.44270963886785</v>
@@ -32072,7 +32072,7 @@
         <v>17.04892750862746</v>
       </c>
       <c r="I15" t="n">
-        <v>60.77842004665103</v>
+        <v>60.77842004665102</v>
       </c>
       <c r="J15" t="n">
         <v>166.7806300923452</v>
@@ -32081,19 +32081,19 @@
         <v>285.0546612557389</v>
       </c>
       <c r="L15" t="n">
-        <v>383.2911699884662</v>
+        <v>383.2911699884661</v>
       </c>
       <c r="M15" t="n">
-        <v>447.2827167000037</v>
+        <v>447.2827167000036</v>
       </c>
       <c r="N15" t="n">
-        <v>459.120959279791</v>
+        <v>459.1209592797909</v>
       </c>
       <c r="O15" t="n">
-        <v>420.0059811809781</v>
+        <v>420.005981180978</v>
       </c>
       <c r="P15" t="n">
-        <v>337.0918282791201</v>
+        <v>337.09182827912</v>
       </c>
       <c r="Q15" t="n">
         <v>225.3369601321951</v>
@@ -32102,10 +32102,10 @@
         <v>109.6024604051455</v>
       </c>
       <c r="S15" t="n">
-        <v>32.78937692962636</v>
+        <v>32.78937692962635</v>
       </c>
       <c r="T15" t="n">
-        <v>7.115333506098378</v>
+        <v>7.115333506098377</v>
       </c>
       <c r="U15" t="n">
         <v>0.1161371083693969</v>
@@ -32148,7 +32148,7 @@
         <v>1.479954845450456</v>
       </c>
       <c r="H16" t="n">
-        <v>13.15814398955043</v>
+        <v>13.15814398955042</v>
       </c>
       <c r="I16" t="n">
         <v>44.50627844318281</v>
@@ -32157,13 +32157,13 @@
         <v>104.6328075733472</v>
       </c>
       <c r="K16" t="n">
-        <v>171.9438447714257</v>
+        <v>171.9438447714256</v>
       </c>
       <c r="L16" t="n">
         <v>220.0289231136069</v>
       </c>
       <c r="M16" t="n">
-        <v>231.9896490918383</v>
+        <v>231.9896490918382</v>
       </c>
       <c r="N16" t="n">
         <v>226.4734537587958</v>
@@ -32172,7 +32172,7 @@
         <v>209.1848903369427</v>
       </c>
       <c r="P16" t="n">
-        <v>178.9938114897533</v>
+        <v>178.9938114897532</v>
       </c>
       <c r="Q16" t="n">
         <v>123.9260371040377</v>
@@ -32184,7 +32184,7 @@
         <v>25.79157671571384</v>
       </c>
       <c r="T16" t="n">
-        <v>6.323443430561038</v>
+        <v>6.323443430561037</v>
       </c>
       <c r="U16" t="n">
         <v>0.08072480975184314</v>
@@ -34360,13 +34360,13 @@
         <v>3.299305457194253</v>
       </c>
       <c r="H44" t="n">
-        <v>33.78901201349066</v>
+        <v>33.78901201349065</v>
       </c>
       <c r="I44" t="n">
-        <v>127.1964736384816</v>
+        <v>127.1964736384815</v>
       </c>
       <c r="J44" t="n">
-        <v>280.024426547541</v>
+        <v>280.0244265475409</v>
       </c>
       <c r="K44" t="n">
         <v>419.6840265505738</v>
@@ -34375,16 +34375,16 @@
         <v>520.6551459361825</v>
       </c>
       <c r="M44" t="n">
-        <v>579.3291693605609</v>
+        <v>579.3291693605607</v>
       </c>
       <c r="N44" t="n">
-        <v>588.7033209908141</v>
+        <v>588.7033209908139</v>
       </c>
       <c r="O44" t="n">
-        <v>555.8958523508387</v>
+        <v>555.8958523508386</v>
       </c>
       <c r="P44" t="n">
-        <v>474.4442488763555</v>
+        <v>474.4442488763554</v>
       </c>
       <c r="Q44" t="n">
         <v>356.2878721905861</v>
@@ -34393,7 +34393,7 @@
         <v>207.2499964254787</v>
       </c>
       <c r="S44" t="n">
-        <v>75.18292310581413</v>
+        <v>75.18292310581411</v>
       </c>
       <c r="T44" t="n">
         <v>14.44270963886785</v>
@@ -34442,7 +34442,7 @@
         <v>17.04892750862746</v>
       </c>
       <c r="I45" t="n">
-        <v>60.77842004665103</v>
+        <v>60.77842004665102</v>
       </c>
       <c r="J45" t="n">
         <v>166.7806300923452</v>
@@ -34451,19 +34451,19 @@
         <v>285.0546612557389</v>
       </c>
       <c r="L45" t="n">
-        <v>383.2911699884662</v>
+        <v>383.2911699884661</v>
       </c>
       <c r="M45" t="n">
-        <v>447.2827167000037</v>
+        <v>447.2827167000036</v>
       </c>
       <c r="N45" t="n">
-        <v>459.120959279791</v>
+        <v>459.1209592797909</v>
       </c>
       <c r="O45" t="n">
-        <v>420.0059811809781</v>
+        <v>420.005981180978</v>
       </c>
       <c r="P45" t="n">
-        <v>337.0918282791201</v>
+        <v>337.09182827912</v>
       </c>
       <c r="Q45" t="n">
         <v>225.3369601321951</v>
@@ -34472,10 +34472,10 @@
         <v>109.6024604051455</v>
       </c>
       <c r="S45" t="n">
-        <v>32.78937692962636</v>
+        <v>32.78937692962635</v>
       </c>
       <c r="T45" t="n">
-        <v>7.115333506098378</v>
+        <v>7.115333506098377</v>
       </c>
       <c r="U45" t="n">
         <v>0.1161371083693969</v>
@@ -34518,7 +34518,7 @@
         <v>1.479954845450456</v>
       </c>
       <c r="H46" t="n">
-        <v>13.15814398955043</v>
+        <v>13.15814398955042</v>
       </c>
       <c r="I46" t="n">
         <v>44.50627844318281</v>
@@ -34527,13 +34527,13 @@
         <v>104.6328075733472</v>
       </c>
       <c r="K46" t="n">
-        <v>171.9438447714257</v>
+        <v>171.9438447714256</v>
       </c>
       <c r="L46" t="n">
         <v>220.0289231136069</v>
       </c>
       <c r="M46" t="n">
-        <v>231.9896490918383</v>
+        <v>231.9896490918382</v>
       </c>
       <c r="N46" t="n">
         <v>226.4734537587958</v>
@@ -34542,7 +34542,7 @@
         <v>209.1848903369427</v>
       </c>
       <c r="P46" t="n">
-        <v>178.9938114897533</v>
+        <v>178.9938114897532</v>
       </c>
       <c r="Q46" t="n">
         <v>123.9260371040377</v>
@@ -34554,7 +34554,7 @@
         <v>25.79157671571384</v>
       </c>
       <c r="T46" t="n">
-        <v>6.323443430561038</v>
+        <v>6.323443430561037</v>
       </c>
       <c r="U46" t="n">
         <v>0.08072480975184314</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>58.86374454105319</v>
+        <v>183.5586190747613</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>263.2420339516666</v>
@@ -34872,7 +34872,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K6" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>187.2902030354087</v>
+        <v>54.93362571206455</v>
       </c>
       <c r="M6" t="n">
         <v>263.2420339516666</v>
@@ -35027,7 +35027,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
         <v>193.9407825031299</v>
@@ -35109,7 +35109,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>523.7395880767581</v>
       </c>
       <c r="L11" t="n">
-        <v>702.5499455166457</v>
+        <v>702.5499455166458</v>
       </c>
       <c r="M11" t="n">
-        <v>798.4964696261206</v>
+        <v>798.4964696261208</v>
       </c>
       <c r="N11" t="n">
-        <v>796.6371818062073</v>
+        <v>796.6371818062074</v>
       </c>
       <c r="O11" t="n">
         <v>706.5978221918973</v>
       </c>
       <c r="P11" t="n">
-        <v>565.0099612925685</v>
+        <v>565.0099612925686</v>
       </c>
       <c r="Q11" t="n">
-        <v>346.2971729760413</v>
+        <v>346.2971729760414</v>
       </c>
       <c r="R11" t="n">
-        <v>57.380878484329</v>
+        <v>57.38087848432903</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.94300342567851</v>
+        <v>166.0340387660874</v>
       </c>
       <c r="K12" t="n">
-        <v>147.21322228138</v>
+        <v>411.6784592939586</v>
       </c>
       <c r="L12" t="n">
         <v>244.736790208592</v>
       </c>
       <c r="M12" t="n">
-        <v>748.4176697762439</v>
+        <v>443.3414524900797</v>
       </c>
       <c r="N12" t="n">
-        <v>807.1216215400111</v>
+        <v>327.7792471964577</v>
       </c>
       <c r="O12" t="n">
-        <v>277.4097367365337</v>
+        <v>671.2720560132632</v>
       </c>
       <c r="P12" t="n">
         <v>203.1174208647898</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.35518604617357</v>
+        <v>85.3551860461736</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.54256998496575</v>
+        <v>14.54256998496579</v>
       </c>
       <c r="K13" t="n">
-        <v>152.9432954738341</v>
+        <v>152.9432954738342</v>
       </c>
       <c r="L13" t="n">
         <v>250.8878909022144</v>
       </c>
       <c r="M13" t="n">
-        <v>274.8424685819701</v>
+        <v>274.8424685819702</v>
       </c>
       <c r="N13" t="n">
-        <v>273.8745686663157</v>
+        <v>273.8745686663158</v>
       </c>
       <c r="O13" t="n">
         <v>237.0389607792737</v>
@@ -35586,7 +35586,7 @@
         <v>179.5413132829381</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.03293638063466</v>
+        <v>41.03293638063469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>268.0751371929285</v>
+        <v>268.0751371929284</v>
       </c>
       <c r="K14" t="n">
-        <v>523.7395880767581</v>
+        <v>523.739588076758</v>
       </c>
       <c r="L14" t="n">
         <v>702.5499455166457</v>
       </c>
       <c r="M14" t="n">
-        <v>798.4964696261206</v>
+        <v>798.4964696261205</v>
       </c>
       <c r="N14" t="n">
-        <v>796.6371818062073</v>
+        <v>796.6371818062072</v>
       </c>
       <c r="O14" t="n">
-        <v>706.5978221918973</v>
+        <v>706.5978221918972</v>
       </c>
       <c r="P14" t="n">
         <v>565.0099612925685</v>
@@ -35668,7 +35668,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R14" t="n">
-        <v>57.380878484329</v>
+        <v>57.38087848432897</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>166.0340387660873</v>
       </c>
       <c r="K15" t="n">
-        <v>411.6784592939586</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L15" t="n">
-        <v>244.736790208592</v>
+        <v>244.7367902085919</v>
       </c>
       <c r="M15" t="n">
-        <v>305.1486827779854</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N15" t="n">
-        <v>331.2942798094957</v>
+        <v>327.7792471964576</v>
       </c>
       <c r="O15" t="n">
-        <v>277.4097367365337</v>
+        <v>277.4097367365336</v>
       </c>
       <c r="P15" t="n">
-        <v>521.5801895047271</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q15" t="n">
-        <v>295.4324737820227</v>
+        <v>289.5028801425586</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.44462625250236</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.54256998496575</v>
+        <v>14.54256998496577</v>
       </c>
       <c r="K16" t="n">
         <v>152.9432954738341</v>
       </c>
       <c r="L16" t="n">
-        <v>250.8878909022144</v>
+        <v>250.8878909022143</v>
       </c>
       <c r="M16" t="n">
-        <v>274.8424685819701</v>
+        <v>274.8424685819702</v>
       </c>
       <c r="N16" t="n">
         <v>273.8745686663157</v>
@@ -35820,7 +35820,7 @@
         <v>237.0389607792737</v>
       </c>
       <c r="P16" t="n">
-        <v>179.5413132829381</v>
+        <v>179.541313282938</v>
       </c>
       <c r="Q16" t="n">
         <v>41.03293638063466</v>
@@ -35896,7 +35896,7 @@
         <v>796.6371818062072</v>
       </c>
       <c r="O17" t="n">
-        <v>706.5978221918984</v>
+        <v>706.5978221918972</v>
       </c>
       <c r="P17" t="n">
         <v>565.0099612925685</v>
@@ -35963,19 +35963,19 @@
         <v>39.94300342567848</v>
       </c>
       <c r="K18" t="n">
-        <v>147.2132222813799</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L18" t="n">
         <v>615.5771355120511</v>
       </c>
       <c r="M18" t="n">
-        <v>770.8537465279852</v>
+        <v>592.4544618037597</v>
       </c>
       <c r="N18" t="n">
         <v>327.7792471964576</v>
       </c>
       <c r="O18" t="n">
-        <v>363.4756890248864</v>
+        <v>277.4097367365336</v>
       </c>
       <c r="P18" t="n">
         <v>203.1174208647898</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>14.54256998496568</v>
+        <v>14.54256998496577</v>
       </c>
       <c r="K19" t="n">
-        <v>152.943295473834</v>
+        <v>152.9432954738341</v>
       </c>
       <c r="L19" t="n">
         <v>250.8878909022143</v>
       </c>
       <c r="M19" t="n">
-        <v>274.8424685819701</v>
+        <v>274.8424685819702</v>
       </c>
       <c r="N19" t="n">
         <v>273.8745686663157</v>
       </c>
       <c r="O19" t="n">
-        <v>237.0389607792736</v>
+        <v>237.0389607792737</v>
       </c>
       <c r="P19" t="n">
         <v>179.541313282938</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.03293638063458</v>
+        <v>41.03293638063466</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.54256998496565</v>
+        <v>14.54256998496574</v>
       </c>
       <c r="K22" t="n">
-        <v>152.943295473834</v>
+        <v>152.9432954738341</v>
       </c>
       <c r="L22" t="n">
         <v>250.8878909022143</v>
@@ -36288,16 +36288,16 @@
         <v>274.8424685819701</v>
       </c>
       <c r="N22" t="n">
-        <v>273.8745686663156</v>
+        <v>273.8745686663157</v>
       </c>
       <c r="O22" t="n">
-        <v>237.0389607792736</v>
+        <v>237.0389607792737</v>
       </c>
       <c r="P22" t="n">
-        <v>179.5413132829379</v>
+        <v>179.541313282938</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.03293638063455</v>
+        <v>41.03293638063464</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>39.94300342567848</v>
+        <v>166.0340387660873</v>
       </c>
       <c r="K24" t="n">
         <v>411.6784592939585</v>
       </c>
       <c r="L24" t="n">
-        <v>374.3428581620392</v>
+        <v>615.5771355120511</v>
       </c>
       <c r="M24" t="n">
         <v>305.1486827779853</v>
@@ -36452,10 +36452,10 @@
         <v>277.4097367365336</v>
       </c>
       <c r="P24" t="n">
-        <v>521.5801895047269</v>
+        <v>203.1174208647898</v>
       </c>
       <c r="Q24" t="n">
-        <v>295.4324737820226</v>
+        <v>246.569929731539</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>29.3376677425146</v>
+        <v>29.33766774251455</v>
       </c>
       <c r="K25" t="n">
-        <v>167.738393231383</v>
+        <v>167.7383932313829</v>
       </c>
       <c r="L25" t="n">
         <v>265.6829886597632</v>
@@ -36531,10 +36531,10 @@
         <v>251.8340585368225</v>
       </c>
       <c r="P25" t="n">
-        <v>194.3364110404869</v>
+        <v>194.3364110404868</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.8280341381835</v>
+        <v>55.82803413818345</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>39.94300342567848</v>
+        <v>166.0340387660873</v>
       </c>
       <c r="K27" t="n">
-        <v>147.2132222813799</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L27" t="n">
-        <v>244.7367902085919</v>
+        <v>248.2518228216305</v>
       </c>
       <c r="M27" t="n">
-        <v>748.417669776244</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N27" t="n">
-        <v>807.1216215400111</v>
+        <v>327.7792471964576</v>
       </c>
       <c r="O27" t="n">
         <v>277.4097367365336</v>
       </c>
       <c r="P27" t="n">
-        <v>203.1174208647898</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.35518604617354</v>
+        <v>295.4324737820226</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>26.06872521422329</v>
+        <v>26.06872521422324</v>
       </c>
       <c r="K28" t="n">
         <v>164.4694507030916</v>
       </c>
       <c r="L28" t="n">
-        <v>262.4140461314719</v>
+        <v>262.4140461314718</v>
       </c>
       <c r="M28" t="n">
-        <v>286.3686238112277</v>
+        <v>286.3686238112276</v>
       </c>
       <c r="N28" t="n">
-        <v>285.4007238955733</v>
+        <v>285.4007238955732</v>
       </c>
       <c r="O28" t="n">
         <v>248.5651160085312</v>
       </c>
       <c r="P28" t="n">
-        <v>191.0674685121956</v>
+        <v>191.0674685121955</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.55909160989219</v>
+        <v>52.55909160989214</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>411.6784592939585</v>
       </c>
       <c r="L30" t="n">
-        <v>244.7367902085919</v>
+        <v>248.2518228216305</v>
       </c>
       <c r="M30" t="n">
         <v>305.1486827779853</v>
@@ -36926,13 +36926,13 @@
         <v>277.4097367365336</v>
       </c>
       <c r="P30" t="n">
-        <v>515.6505958652631</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q30" t="n">
         <v>295.4324737820226</v>
       </c>
       <c r="R30" t="n">
-        <v>9.44462625250236</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26.06872521422329</v>
+        <v>26.06872521422324</v>
       </c>
       <c r="K31" t="n">
         <v>164.4694507030916</v>
       </c>
       <c r="L31" t="n">
-        <v>262.4140461314719</v>
+        <v>262.4140461314718</v>
       </c>
       <c r="M31" t="n">
-        <v>286.3686238112277</v>
+        <v>286.3686238112276</v>
       </c>
       <c r="N31" t="n">
-        <v>285.4007238955733</v>
+        <v>285.4007238955732</v>
       </c>
       <c r="O31" t="n">
         <v>248.5651160085312</v>
       </c>
       <c r="P31" t="n">
-        <v>191.0674685121956</v>
+        <v>191.0674685121955</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.55909160989219</v>
+        <v>52.55909160989214</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>166.0340387660873</v>
       </c>
       <c r="K33" t="n">
-        <v>411.6784592939585</v>
+        <v>339.7939412702042</v>
       </c>
       <c r="L33" t="n">
         <v>244.7367902085919</v>
@@ -37160,16 +37160,16 @@
         <v>327.7792471964576</v>
       </c>
       <c r="O33" t="n">
-        <v>277.4097367365336</v>
+        <v>671.2720560132632</v>
       </c>
       <c r="P33" t="n">
-        <v>515.6505958652631</v>
+        <v>203.1174208647898</v>
       </c>
       <c r="Q33" t="n">
         <v>295.4324737820226</v>
       </c>
       <c r="R33" t="n">
-        <v>9.44462625250236</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.19505319853589</v>
+        <v>80.19505319853593</v>
       </c>
       <c r="K34" t="n">
-        <v>218.5957786874042</v>
+        <v>218.5957786874043</v>
       </c>
       <c r="L34" t="n">
         <v>316.5403741157845</v>
       </c>
       <c r="M34" t="n">
-        <v>340.4949517955403</v>
+        <v>340.4949517955404</v>
       </c>
       <c r="N34" t="n">
-        <v>339.5270518798858</v>
+        <v>339.5270518798859</v>
       </c>
       <c r="O34" t="n">
-        <v>302.6914439928438</v>
+        <v>302.6914439928439</v>
       </c>
       <c r="P34" t="n">
         <v>245.1937964965082</v>
@@ -37388,7 +37388,7 @@
         <v>411.6784592939585</v>
       </c>
       <c r="L36" t="n">
-        <v>244.7367902085919</v>
+        <v>248.2518228216305</v>
       </c>
       <c r="M36" t="n">
         <v>305.1486827779853</v>
@@ -37400,13 +37400,13 @@
         <v>277.4097367365336</v>
       </c>
       <c r="P36" t="n">
-        <v>515.6505958652631</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q36" t="n">
         <v>295.4324737820226</v>
       </c>
       <c r="R36" t="n">
-        <v>9.44462625250236</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.19505319853594</v>
+        <v>80.19505319853596</v>
       </c>
       <c r="K37" t="n">
         <v>218.5957786874043</v>
@@ -37482,7 +37482,7 @@
         <v>245.1937964965082</v>
       </c>
       <c r="Q37" t="n">
-        <v>106.6854195942048</v>
+        <v>106.6854195942049</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>268.0751371929284</v>
       </c>
       <c r="K38" t="n">
-        <v>523.7395880767584</v>
+        <v>523.739588076758</v>
       </c>
       <c r="L38" t="n">
         <v>702.5499455166457</v>
@@ -37625,7 +37625,7 @@
         <v>411.6784592939585</v>
       </c>
       <c r="L39" t="n">
-        <v>244.7367902085919</v>
+        <v>248.2518228216305</v>
       </c>
       <c r="M39" t="n">
         <v>305.1486827779853</v>
@@ -37637,13 +37637,13 @@
         <v>277.4097367365336</v>
       </c>
       <c r="P39" t="n">
-        <v>515.6505958652631</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q39" t="n">
         <v>295.4324737820226</v>
       </c>
       <c r="R39" t="n">
-        <v>9.44462625250236</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.19505319853593</v>
+        <v>80.1950531985359</v>
       </c>
       <c r="K40" t="n">
-        <v>218.5957786874043</v>
+        <v>218.5957786874042</v>
       </c>
       <c r="L40" t="n">
         <v>316.5403741157845</v>
       </c>
       <c r="M40" t="n">
-        <v>340.4949517955404</v>
+        <v>340.4949517955403</v>
       </c>
       <c r="N40" t="n">
-        <v>339.5270518798859</v>
+        <v>339.5270518798858</v>
       </c>
       <c r="O40" t="n">
-        <v>302.6914439928439</v>
+        <v>302.6914439928438</v>
       </c>
       <c r="P40" t="n">
         <v>245.1937964965082</v>
@@ -37801,7 +37801,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R41" t="n">
-        <v>57.38087848432897</v>
+        <v>57.3808784843288</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>411.6784592939585</v>
       </c>
       <c r="L42" t="n">
-        <v>244.7367902085919</v>
+        <v>248.2518228216305</v>
       </c>
       <c r="M42" t="n">
         <v>305.1486827779853</v>
@@ -37874,13 +37874,13 @@
         <v>277.4097367365336</v>
       </c>
       <c r="P42" t="n">
-        <v>515.6505958652631</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q42" t="n">
         <v>295.4324737820226</v>
       </c>
       <c r="R42" t="n">
-        <v>9.44462625250236</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.1950531985359</v>
+        <v>80.19505319853593</v>
       </c>
       <c r="K43" t="n">
-        <v>218.5957786874042</v>
+        <v>218.5957786874043</v>
       </c>
       <c r="L43" t="n">
         <v>316.5403741157845</v>
       </c>
       <c r="M43" t="n">
-        <v>340.4949517955403</v>
+        <v>340.4949517955404</v>
       </c>
       <c r="N43" t="n">
-        <v>339.5270518798858</v>
+        <v>339.5270518798859</v>
       </c>
       <c r="O43" t="n">
-        <v>302.6914439928438</v>
+        <v>302.6914439928439</v>
       </c>
       <c r="P43" t="n">
         <v>245.1937964965082</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>268.0751371929285</v>
+        <v>268.0751371929284</v>
       </c>
       <c r="K44" t="n">
-        <v>523.7395880767581</v>
+        <v>523.739588076758</v>
       </c>
       <c r="L44" t="n">
         <v>702.5499455166457</v>
       </c>
       <c r="M44" t="n">
-        <v>798.4964696261206</v>
+        <v>798.496469626121</v>
       </c>
       <c r="N44" t="n">
-        <v>796.6371818062073</v>
+        <v>796.6371818062072</v>
       </c>
       <c r="O44" t="n">
-        <v>706.5978221918973</v>
+        <v>706.5978221918972</v>
       </c>
       <c r="P44" t="n">
         <v>565.0099612925685</v>
       </c>
       <c r="Q44" t="n">
-        <v>346.2971729760412</v>
+        <v>346.2971729760413</v>
       </c>
       <c r="R44" t="n">
-        <v>57.380878484329</v>
+        <v>57.38087848432897</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>39.94300342567851</v>
+        <v>166.0340387660873</v>
       </c>
       <c r="K45" t="n">
-        <v>147.21322228138</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L45" t="n">
-        <v>615.5771355120512</v>
+        <v>244.7367902085919</v>
       </c>
       <c r="M45" t="n">
-        <v>770.8537465279853</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N45" t="n">
         <v>327.7792471964576</v>
       </c>
       <c r="O45" t="n">
-        <v>363.4756890248862</v>
+        <v>280.9247693495722</v>
       </c>
       <c r="P45" t="n">
-        <v>203.1174208647898</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.35518604617357</v>
+        <v>295.4324737820226</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.19505319853592</v>
+        <v>80.1950531985359</v>
       </c>
       <c r="K46" t="n">
-        <v>218.5957786874043</v>
+        <v>218.5957786874042</v>
       </c>
       <c r="L46" t="n">
         <v>316.5403741157845</v>
@@ -38187,7 +38187,7 @@
         <v>339.5270518798859</v>
       </c>
       <c r="O46" t="n">
-        <v>302.6914439928439</v>
+        <v>302.6914439928438</v>
       </c>
       <c r="P46" t="n">
         <v>245.1937964965082</v>
